--- a/Data/SPE/FTICRMS SPE dilutions template_filled_out AMP.xlsx
+++ b/Data/SPE/FTICRMS SPE dilutions template_filled_out AMP.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myer056/GitHub/tempest_ionic_strength/Data/SPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01364B8A-0836-5340-9005-E3EA1EBA8868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378F4B42-4F9C-EF4D-BFC0-B16C1E1531C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="760" windowWidth="29040" windowHeight="17820" activeTab="1" xr2:uid="{88C78EEA-1365-A44C-9080-7B0F676A2065}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" activeTab="1" xr2:uid="{88C78EEA-1365-A44C-9080-7B0F676A2065}"/>
   </bookViews>
   <sheets>
     <sheet name="dilutions_calculations_sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="print me lab dilution sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="lab sheet for recoveries" sheetId="4" r:id="rId2"/>
+    <sheet name="print me lab dilution sheet" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -194,6 +195,42 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={124A97CB-3B21-CA43-8454-6678092D8074}</author>
+    <author>tc={09228796-BC91-8F4A-8F9D-95E02508DB1B}</author>
+    <author>tc={1CAF350E-C66A-EE42-AC8E-B02A37323907}</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{124A97CB-3B21-CA43-8454-6678092D8074}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Dispensed 230 uL of eluted samples to empty 14 mL falcon tubes.</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{09228796-BC91-8F4A-8F9D-95E02508DB1B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Just for fun and to check precision. Took (C-B)/0.7918 (density of methanol).</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{1CAF350E-C66A-EE42-AC8E-B02A37323907}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Added 7 mL of milli-Q water to redissolve and used a sonicator to help if needed.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={CB272B70-7983-014D-B745-0E7162575F8E}</author>
@@ -503,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="244">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -881,6 +918,360 @@
   </si>
   <si>
     <t>Eluate Concentration (mg C /L ).  *** Assuming 45% Efficency****</t>
+  </si>
+  <si>
+    <t>Short_ID</t>
+  </si>
+  <si>
+    <t>empty_vial_g</t>
+  </si>
+  <si>
+    <t>Vial_SS_g</t>
+  </si>
+  <si>
+    <t>mL_MeOH</t>
+  </si>
+  <si>
+    <t>Vial_pellet_g</t>
+  </si>
+  <si>
+    <t>pellet_g</t>
+  </si>
+  <si>
+    <t>Vial_dissolved_pellet_g</t>
+  </si>
+  <si>
+    <t>water_added_mL</t>
+  </si>
+  <si>
+    <t>Notes for condesation:</t>
+  </si>
+  <si>
+    <t>Notes for redissolving/sonification:</t>
+  </si>
+  <si>
+    <t>5.B.1</t>
+  </si>
+  <si>
+    <t>5.C.1</t>
+  </si>
+  <si>
+    <t>1.C.1</t>
+  </si>
+  <si>
+    <t>1.B.1</t>
+  </si>
+  <si>
+    <t>0.A.6</t>
+  </si>
+  <si>
+    <t>0.B.6</t>
+  </si>
+  <si>
+    <t>0.C.5</t>
+  </si>
+  <si>
+    <t>01.B.6</t>
+  </si>
+  <si>
+    <t>01.A.6</t>
+  </si>
+  <si>
+    <t>1.B.6</t>
+  </si>
+  <si>
+    <t>0.C.4</t>
+  </si>
+  <si>
+    <t>100.C.3</t>
+  </si>
+  <si>
+    <t>25.B.4</t>
+  </si>
+  <si>
+    <t>100.B.4</t>
+  </si>
+  <si>
+    <t>100.C.4</t>
+  </si>
+  <si>
+    <t>25.B.6</t>
+  </si>
+  <si>
+    <t>25.A.6</t>
+  </si>
+  <si>
+    <t>5.C.5</t>
+  </si>
+  <si>
+    <t>5.A.5</t>
+  </si>
+  <si>
+    <t>5.B.5</t>
+  </si>
+  <si>
+    <t>01.C.2</t>
+  </si>
+  <si>
+    <t>Blk3</t>
+  </si>
+  <si>
+    <t>25.C.1</t>
+  </si>
+  <si>
+    <t>5.A.1</t>
+  </si>
+  <si>
+    <t>100.B.1</t>
+  </si>
+  <si>
+    <t>100.A.1</t>
+  </si>
+  <si>
+    <t>100.C.1</t>
+  </si>
+  <si>
+    <t>25.A.1</t>
+  </si>
+  <si>
+    <t>01.B.1</t>
+  </si>
+  <si>
+    <t>01.A.1</t>
+  </si>
+  <si>
+    <t>01.C.1</t>
+  </si>
+  <si>
+    <t>0.B.5</t>
+  </si>
+  <si>
+    <t>0.A.5</t>
+  </si>
+  <si>
+    <t>0.A.4</t>
+  </si>
+  <si>
+    <t>01.A.5</t>
+  </si>
+  <si>
+    <t>0.B.4</t>
+  </si>
+  <si>
+    <t>01.B.5</t>
+  </si>
+  <si>
+    <t>01.A.4</t>
+  </si>
+  <si>
+    <t>01.C.4</t>
+  </si>
+  <si>
+    <t>1.A.6</t>
+  </si>
+  <si>
+    <t>1.A.5</t>
+  </si>
+  <si>
+    <t>1.C.5</t>
+  </si>
+  <si>
+    <t>5.A.6</t>
+  </si>
+  <si>
+    <t>5.B.6</t>
+  </si>
+  <si>
+    <t>5.C.6</t>
+  </si>
+  <si>
+    <t>100.A.2</t>
+  </si>
+  <si>
+    <t>100.B.2</t>
+  </si>
+  <si>
+    <t>100.C.2</t>
+  </si>
+  <si>
+    <t>25.A.2</t>
+  </si>
+  <si>
+    <t>25.B.2</t>
+  </si>
+  <si>
+    <t>25.C.2</t>
+  </si>
+  <si>
+    <t>5.B.2</t>
+  </si>
+  <si>
+    <t>5.C.2</t>
+  </si>
+  <si>
+    <t>5.A.2</t>
+  </si>
+  <si>
+    <t>1.A.2</t>
+  </si>
+  <si>
+    <t>1.B.2</t>
+  </si>
+  <si>
+    <t>1.C.2</t>
+  </si>
+  <si>
+    <t>0.C.1</t>
+  </si>
+  <si>
+    <t>0.A.2</t>
+  </si>
+  <si>
+    <t>01.B.3</t>
+  </si>
+  <si>
+    <t>01.A.3</t>
+  </si>
+  <si>
+    <t>01.C.3</t>
+  </si>
+  <si>
+    <t>0.C.3</t>
+  </si>
+  <si>
+    <t>0.A.3</t>
+  </si>
+  <si>
+    <t>0.B.3</t>
+  </si>
+  <si>
+    <t>1.C.4</t>
+  </si>
+  <si>
+    <t>1.A.4</t>
+  </si>
+  <si>
+    <t>1.B.4</t>
+  </si>
+  <si>
+    <t>Did not sub sample because the sample was compromised during elution.</t>
+  </si>
+  <si>
+    <t>5.C.4</t>
+  </si>
+  <si>
+    <t>100.B.6</t>
+  </si>
+  <si>
+    <t>Dispensed 400 uL to compensate for the extra 500 uL used in elution.</t>
+  </si>
+  <si>
+    <t>100.A.6</t>
+  </si>
+  <si>
+    <t>100.A.5</t>
+  </si>
+  <si>
+    <t>25.A.4</t>
+  </si>
+  <si>
+    <t>Blk1</t>
+  </si>
+  <si>
+    <t>0.A.1</t>
+  </si>
+  <si>
+    <t>Potential to be 01.A.1. Most likely is 0.A.1 because during elutions, the vials (01.A.1 and 0.A.1) were mistakenly swapped and had the wrong sample eluted into them but the weights were "swapped" on the EXP Elution sheet. The vial which we are 90% sure is 0.A.1 has a zero blacked out 0 so we assume that we had mistakenly blacked out the 0 instead of the 1 when trying to correct for the error. We will need to check the data to confirm our suspicions.</t>
+  </si>
+  <si>
+    <t>0.B.1</t>
+  </si>
+  <si>
+    <t>01.A.2</t>
+  </si>
+  <si>
+    <t>01.B.2</t>
+  </si>
+  <si>
+    <t>100.A.4</t>
+  </si>
+  <si>
+    <t>5.C.3</t>
+  </si>
+  <si>
+    <t>25.B.3</t>
+  </si>
+  <si>
+    <t>25.A.3</t>
+  </si>
+  <si>
+    <t>25.C.3</t>
+  </si>
+  <si>
+    <t>100.B.3</t>
+  </si>
+  <si>
+    <t>5.A.4</t>
+  </si>
+  <si>
+    <t>25.B.5</t>
+  </si>
+  <si>
+    <t>5.B.4</t>
+  </si>
+  <si>
+    <t>25.A.5</t>
+  </si>
+  <si>
+    <t>100.B.5</t>
+  </si>
+  <si>
+    <t>100.C.5</t>
+  </si>
+  <si>
+    <t>1.A.3</t>
+  </si>
+  <si>
+    <t>1.C.3</t>
+  </si>
+  <si>
+    <t>1.B.3</t>
+  </si>
+  <si>
+    <t>5.B.3</t>
+  </si>
+  <si>
+    <t>5.A.3</t>
+  </si>
+  <si>
+    <t>100.A.3</t>
+  </si>
+  <si>
+    <t>Blk2</t>
+  </si>
+  <si>
+    <t>25.B.1</t>
+  </si>
+  <si>
+    <t>Sample was contaminated during extraction. Results are suspect.</t>
+  </si>
+  <si>
+    <t>25.C.5</t>
+  </si>
+  <si>
+    <t>1.A.1</t>
+  </si>
+  <si>
+    <t>25.C.6</t>
+  </si>
+  <si>
+    <t>01.C.5</t>
+  </si>
+  <si>
+    <t>01.B.4</t>
+  </si>
+  <si>
+    <t>1.B.5</t>
   </si>
 </sst>
 </file>
@@ -971,12 +1362,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -1067,7 +1476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1156,6 +1565,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1175,15 +1599,16 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="O'Loughlin, Connor C" id="{443C92BE-5EC3-C242-B3CF-17DEBA50F7AC}" userId="S::connor.oloughlin@pnnl.gov::9f8385d1-79f9-4371-8f80-dd274b837333" providerId="AD"/>
   <person displayName="Grieger, Samantha R" id="{42B7E531-F973-4941-A3F1-2E0A918A88E7}" userId="S::samantha.grieger@pnnl.gov::23a5fef3-0638-4e79-9dc6-f7147151bb5e" providerId="AD"/>
   <person displayName="Myers-Pigg, Allison N" id="{C9156CD5-0306-403E-86D7-3E19D63E8616}" userId="S::allison.myers-pigg@pnnl.gov::9edc4ce8-2589-476c-8ad3-0c1710c48997" providerId="AD"/>
 </personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1221,7 +1646,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1327,7 +1752,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1469,7 +1894,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1535,6 +1960,20 @@
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2024-01-24T22:39:08.52" personId="{443C92BE-5EC3-C242-B3CF-17DEBA50F7AC}" id="{124A97CB-3B21-CA43-8454-6678092D8074}">
+    <text>Dispensed 230 uL of eluted samples to empty 14 mL falcon tubes.</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2024-01-24T22:40:27.48" personId="{443C92BE-5EC3-C242-B3CF-17DEBA50F7AC}" id="{09228796-BC91-8F4A-8F9D-95E02508DB1B}">
+    <text>Just for fun and to check precision. Took (C-B)/0.7918 (density of methanol).</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2024-01-24T22:38:22.53" personId="{443C92BE-5EC3-C242-B3CF-17DEBA50F7AC}" id="{1CAF350E-C66A-EE42-AC8E-B02A37323907}">
+    <text>Added 7 mL of milli-Q water to redissolve and used a sonicator to help if needed.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2022-10-14T20:16:05.59" personId="{42B7E531-F973-4941-A3F1-2E0A918A88E7}" id="{CB272B70-7983-014D-B745-0E7162575F8E}">
     <text xml:space="preserve">after calculating dilutions; values will fill in here. Then, print this sheet out to use while diluting samples in lab. Digitize the actual weights recorded in lab here. Lab values will then autopopulate to the "dilutions_calcualtions_sheet". </text>
@@ -1657,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D07A3E-9050-4F42-8C8E-5CEE8C3DD998}">
   <dimension ref="A1:Z206"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="83" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I103"/>
+    <sheetView zoomScale="89" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1668,7 +2107,8 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="17.83203125" customWidth="1"/>
+    <col min="6" max="9" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="38" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="18.83203125" style="5" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="6"/>
@@ -1710,7 +2150,7 @@
       <c r="I1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="36" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="10" t="s">
@@ -1785,7 +2225,7 @@
         <f>(B2*C2/D2)*0.45</f>
         <v>45</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="37">
         <f>(B2*C2/D2)</f>
         <v>100</v>
       </c>
@@ -1871,7 +2311,7 @@
         <f t="shared" ref="I3:I66" si="2">(B3*C3/D3)*0.45</f>
         <v>25.798500000000001</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="37">
         <f t="shared" ref="J3:J66" si="3">(B3*C3/D3)</f>
         <v>57.33</v>
       </c>
@@ -1960,7 +2400,7 @@
         <f t="shared" si="2"/>
         <v>25.470000000000002</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="37">
         <f t="shared" si="3"/>
         <v>56.6</v>
       </c>
@@ -2050,7 +2490,7 @@
         <f t="shared" si="2"/>
         <v>24.641999999999999</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="37">
         <f t="shared" si="3"/>
         <v>54.76</v>
       </c>
@@ -2133,7 +2573,7 @@
         <f t="shared" si="2"/>
         <v>32.4</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="37">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
@@ -2219,7 +2659,7 @@
         <f t="shared" si="2"/>
         <v>21.602700000000002</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="37">
         <f t="shared" si="3"/>
         <v>48.006</v>
       </c>
@@ -2309,7 +2749,7 @@
         <f t="shared" si="2"/>
         <v>20.960100000000001</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="37">
         <f t="shared" si="3"/>
         <v>46.578000000000003</v>
       </c>
@@ -2392,7 +2832,7 @@
         <f t="shared" si="2"/>
         <v>39.8628</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="37">
         <f t="shared" si="3"/>
         <v>88.584000000000003</v>
       </c>
@@ -2475,7 +2915,7 @@
         <f t="shared" si="2"/>
         <v>25.393499999999996</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="37">
         <f t="shared" si="3"/>
         <v>56.429999999999993</v>
       </c>
@@ -2558,7 +2998,7 @@
         <f t="shared" si="2"/>
         <v>23.328000000000003</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="37">
         <f t="shared" si="3"/>
         <v>51.84</v>
       </c>
@@ -2641,7 +3081,7 @@
         <f t="shared" si="2"/>
         <v>23.541299999999996</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="37">
         <f t="shared" si="3"/>
         <v>52.313999999999993</v>
       </c>
@@ -2724,7 +3164,7 @@
         <f t="shared" si="2"/>
         <v>21.157200000000003</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="37">
         <f t="shared" si="3"/>
         <v>47.016000000000005</v>
       </c>
@@ -2807,7 +3247,7 @@
         <f t="shared" si="2"/>
         <v>36.223200000000006</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="37">
         <f t="shared" si="3"/>
         <v>80.496000000000009</v>
       </c>
@@ -2890,7 +3330,7 @@
         <f t="shared" si="2"/>
         <v>31.392000000000003</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="37">
         <f t="shared" si="3"/>
         <v>69.760000000000005</v>
       </c>
@@ -2973,7 +3413,7 @@
         <f t="shared" si="2"/>
         <v>23.490000000000002</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="37">
         <f t="shared" si="3"/>
         <v>52.2</v>
       </c>
@@ -3056,7 +3496,7 @@
         <f t="shared" si="2"/>
         <v>23.796000000000003</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="37">
         <f t="shared" si="3"/>
         <v>52.88</v>
       </c>
@@ -3139,7 +3579,7 @@
         <f t="shared" si="2"/>
         <v>38.5182</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="37">
         <f t="shared" si="3"/>
         <v>85.596000000000004</v>
       </c>
@@ -3222,7 +3662,7 @@
         <f t="shared" si="2"/>
         <v>39.630600000000008</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="37">
         <f t="shared" si="3"/>
         <v>88.068000000000012</v>
       </c>
@@ -3305,7 +3745,7 @@
         <f t="shared" si="2"/>
         <v>32.048999999999999</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="37">
         <f t="shared" si="3"/>
         <v>71.22</v>
       </c>
@@ -3388,7 +3828,7 @@
         <f t="shared" si="2"/>
         <v>24.327000000000002</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="37">
         <f t="shared" si="3"/>
         <v>54.06</v>
       </c>
@@ -3471,7 +3911,7 @@
         <f t="shared" si="2"/>
         <v>29.376000000000001</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="37">
         <f t="shared" si="3"/>
         <v>65.28</v>
       </c>
@@ -3554,7 +3994,7 @@
         <f t="shared" si="2"/>
         <v>25.585200000000004</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="37">
         <f t="shared" si="3"/>
         <v>56.856000000000009</v>
       </c>
@@ -3637,7 +4077,7 @@
         <f t="shared" si="2"/>
         <v>22.720499999999998</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="37">
         <f t="shared" si="3"/>
         <v>50.489999999999995</v>
       </c>
@@ -3720,7 +4160,7 @@
         <f t="shared" si="2"/>
         <v>36.331199999999995</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="37">
         <f t="shared" si="3"/>
         <v>80.73599999999999</v>
       </c>
@@ -3803,7 +4243,7 @@
         <f t="shared" si="2"/>
         <v>33.183</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="37">
         <f t="shared" si="3"/>
         <v>73.739999999999995</v>
       </c>
@@ -3886,7 +4326,7 @@
         <f t="shared" si="2"/>
         <v>24.192000000000004</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="37">
         <f t="shared" si="3"/>
         <v>53.760000000000005</v>
       </c>
@@ -3969,7 +4409,7 @@
         <f t="shared" si="2"/>
         <v>29.357999999999997</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="37">
         <f t="shared" si="3"/>
         <v>65.239999999999995</v>
       </c>
@@ -4052,7 +4492,7 @@
         <f t="shared" si="2"/>
         <v>24.9345</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="37">
         <f t="shared" si="3"/>
         <v>55.41</v>
       </c>
@@ -4135,7 +4575,7 @@
         <f t="shared" si="2"/>
         <v>21.3111</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="37">
         <f t="shared" si="3"/>
         <v>47.357999999999997</v>
       </c>
@@ -4218,7 +4658,7 @@
         <f t="shared" si="2"/>
         <v>40.1004</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="37">
         <f t="shared" si="3"/>
         <v>89.111999999999995</v>
       </c>
@@ -4301,7 +4741,7 @@
         <f t="shared" si="2"/>
         <v>31.212</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="37">
         <f t="shared" si="3"/>
         <v>69.36</v>
       </c>
@@ -4384,7 +4824,7 @@
         <f t="shared" si="2"/>
         <v>23.989500000000003</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="37">
         <f t="shared" si="3"/>
         <v>53.31</v>
       </c>
@@ -4467,7 +4907,7 @@
         <f t="shared" si="2"/>
         <v>28.422000000000001</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="37">
         <f t="shared" si="3"/>
         <v>63.16</v>
       </c>
@@ -4550,7 +4990,7 @@
         <f t="shared" si="2"/>
         <v>26.111699999999999</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="37">
         <f t="shared" si="3"/>
         <v>58.025999999999996</v>
       </c>
@@ -4633,7 +5073,7 @@
         <f t="shared" si="2"/>
         <v>20.347199999999997</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="37">
         <f t="shared" si="3"/>
         <v>45.215999999999994</v>
       </c>
@@ -4716,7 +5156,7 @@
         <f t="shared" si="2"/>
         <v>31.014000000000003</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="37">
         <f t="shared" si="3"/>
         <v>68.92</v>
       </c>
@@ -4799,7 +5239,7 @@
         <f t="shared" si="2"/>
         <v>27.84375</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="37">
         <f t="shared" si="3"/>
         <v>61.875</v>
       </c>
@@ -4882,7 +5322,7 @@
         <f t="shared" si="2"/>
         <v>22.644000000000002</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="37">
         <f t="shared" si="3"/>
         <v>50.32</v>
       </c>
@@ -4965,7 +5405,7 @@
         <f t="shared" si="2"/>
         <v>30.320999999999998</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="37">
         <f t="shared" si="3"/>
         <v>67.38</v>
       </c>
@@ -5048,7 +5488,7 @@
         <f t="shared" si="2"/>
         <v>21.087</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="37">
         <f t="shared" si="3"/>
         <v>46.86</v>
       </c>
@@ -5131,7 +5571,7 @@
         <f t="shared" si="2"/>
         <v>28.787400000000005</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="37">
         <f t="shared" si="3"/>
         <v>63.972000000000008</v>
       </c>
@@ -5214,7 +5654,7 @@
         <f t="shared" si="2"/>
         <v>29.97</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="37">
         <f t="shared" si="3"/>
         <v>66.599999999999994</v>
       </c>
@@ -5297,7 +5737,7 @@
         <f t="shared" si="2"/>
         <v>25.59375</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="37">
         <f t="shared" si="3"/>
         <v>56.875</v>
       </c>
@@ -5380,7 +5820,7 @@
         <f t="shared" si="2"/>
         <v>25.704000000000001</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="37">
         <f t="shared" si="3"/>
         <v>57.12</v>
       </c>
@@ -5463,7 +5903,7 @@
         <f t="shared" si="2"/>
         <v>26.927100000000003</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="37">
         <f t="shared" si="3"/>
         <v>59.838000000000008</v>
       </c>
@@ -5546,7 +5986,7 @@
         <f t="shared" si="2"/>
         <v>39.128399999999999</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="37">
         <f t="shared" si="3"/>
         <v>86.951999999999998</v>
       </c>
@@ -5629,7 +6069,7 @@
         <f t="shared" si="2"/>
         <v>32.945399999999999</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="37">
         <f t="shared" si="3"/>
         <v>73.212000000000003</v>
       </c>
@@ -5712,7 +6152,7 @@
         <f t="shared" si="2"/>
         <v>29.826000000000001</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="37">
         <f t="shared" si="3"/>
         <v>66.28</v>
       </c>
@@ -5795,7 +6235,7 @@
         <f t="shared" si="2"/>
         <v>25.41375</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="37">
         <f t="shared" si="3"/>
         <v>56.475000000000001</v>
       </c>
@@ -5878,7 +6318,7 @@
         <f t="shared" si="2"/>
         <v>23.436</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="37">
         <f t="shared" si="3"/>
         <v>52.08</v>
       </c>
@@ -5961,7 +6401,7 @@
         <f t="shared" si="2"/>
         <v>25.919999999999998</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="37">
         <f t="shared" si="3"/>
         <v>57.599999999999994</v>
       </c>
@@ -6044,7 +6484,7 @@
         <f t="shared" si="2"/>
         <v>21.953700000000001</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="37">
         <f t="shared" si="3"/>
         <v>48.786000000000001</v>
       </c>
@@ -6127,7 +6567,7 @@
         <f t="shared" si="2"/>
         <v>29.933549999999997</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="37">
         <f t="shared" si="3"/>
         <v>66.518999999999991</v>
       </c>
@@ -6210,7 +6650,7 @@
         <f t="shared" si="2"/>
         <v>31.725000000000001</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="37">
         <f t="shared" si="3"/>
         <v>70.5</v>
       </c>
@@ -6293,7 +6733,7 @@
         <f t="shared" si="2"/>
         <v>43.807500000000005</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="37">
         <f t="shared" si="3"/>
         <v>97.350000000000009</v>
       </c>
@@ -6376,7 +6816,7 @@
         <f t="shared" si="2"/>
         <v>40.734000000000002</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="37">
         <f t="shared" si="3"/>
         <v>90.52</v>
       </c>
@@ -6459,7 +6899,7 @@
         <f t="shared" si="2"/>
         <v>26.172000000000001</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="37">
         <f t="shared" si="3"/>
         <v>58.16</v>
       </c>
@@ -6542,7 +6982,7 @@
         <f t="shared" si="2"/>
         <v>21.980700000000002</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="37">
         <f t="shared" si="3"/>
         <v>48.846000000000004</v>
       </c>
@@ -6625,7 +7065,7 @@
         <f t="shared" si="2"/>
         <v>34.073999999999998</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="37">
         <f t="shared" si="3"/>
         <v>75.72</v>
       </c>
@@ -6708,7 +7148,7 @@
         <f t="shared" si="2"/>
         <v>37.286999999999999</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="37">
         <f t="shared" si="3"/>
         <v>82.86</v>
       </c>
@@ -6791,7 +7231,7 @@
         <f t="shared" si="2"/>
         <v>51.012</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="37">
         <f t="shared" si="3"/>
         <v>113.36</v>
       </c>
@@ -6874,7 +7314,7 @@
         <f t="shared" si="2"/>
         <v>27.202499999999997</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="37">
         <f t="shared" si="3"/>
         <v>60.449999999999996</v>
       </c>
@@ -6957,7 +7397,7 @@
         <f t="shared" si="2"/>
         <v>26.496000000000002</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="37">
         <f t="shared" si="3"/>
         <v>58.88</v>
       </c>
@@ -7040,7 +7480,7 @@
         <f t="shared" si="2"/>
         <v>23.2362</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="37">
         <f t="shared" si="3"/>
         <v>51.635999999999996</v>
       </c>
@@ -7123,7 +7563,7 @@
         <f t="shared" si="2"/>
         <v>34.165800000000004</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="37">
         <f t="shared" si="3"/>
         <v>75.924000000000007</v>
       </c>
@@ -7206,7 +7646,7 @@
         <f t="shared" ref="I67:I103" si="16">(B67*C67/D67)*0.45</f>
         <v>31.14</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67" s="37">
         <f t="shared" ref="J67:J103" si="17">(B67*C67/D67)</f>
         <v>69.2</v>
       </c>
@@ -7289,7 +7729,7 @@
         <f t="shared" si="16"/>
         <v>50.49</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="37">
         <f t="shared" si="17"/>
         <v>112.2</v>
       </c>
@@ -7372,7 +7812,7 @@
         <f t="shared" si="16"/>
         <v>25.528500000000001</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="37">
         <f t="shared" si="17"/>
         <v>56.730000000000004</v>
       </c>
@@ -7455,7 +7895,7 @@
         <f t="shared" si="16"/>
         <v>20.641500000000001</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="37">
         <f t="shared" si="17"/>
         <v>45.87</v>
       </c>
@@ -7538,7 +7978,7 @@
         <f t="shared" si="16"/>
         <v>36.234000000000002</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="37">
         <f t="shared" si="17"/>
         <v>80.52</v>
       </c>
@@ -7621,7 +8061,7 @@
         <f t="shared" si="16"/>
         <v>41.0535</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="37">
         <f t="shared" si="17"/>
         <v>91.23</v>
       </c>
@@ -7704,7 +8144,7 @@
         <f t="shared" si="16"/>
         <v>49.572000000000003</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73" s="37">
         <f t="shared" si="17"/>
         <v>110.16</v>
       </c>
@@ -7787,7 +8227,7 @@
         <f t="shared" si="16"/>
         <v>26.068499999999997</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="37">
         <f t="shared" si="17"/>
         <v>57.929999999999993</v>
       </c>
@@ -7870,7 +8310,7 @@
         <f t="shared" si="16"/>
         <v>33.291000000000004</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="37">
         <f t="shared" si="17"/>
         <v>73.98</v>
       </c>
@@ -7953,7 +8393,7 @@
         <f t="shared" si="16"/>
         <v>33.759</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="37">
         <f t="shared" si="17"/>
         <v>75.02</v>
       </c>
@@ -8036,7 +8476,7 @@
         <f t="shared" si="16"/>
         <v>43.807500000000005</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="37">
         <f t="shared" si="17"/>
         <v>97.350000000000009</v>
       </c>
@@ -8119,7 +8559,7 @@
         <f t="shared" si="16"/>
         <v>46.116</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="37">
         <f t="shared" si="17"/>
         <v>102.48</v>
       </c>
@@ -8202,7 +8642,7 @@
         <f t="shared" si="16"/>
         <v>24.246000000000002</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="37">
         <f t="shared" si="17"/>
         <v>53.88</v>
       </c>
@@ -8285,7 +8725,7 @@
         <f t="shared" si="16"/>
         <v>31.563000000000002</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="37">
         <f t="shared" si="17"/>
         <v>70.14</v>
       </c>
@@ -8368,7 +8808,7 @@
         <f t="shared" si="16"/>
         <v>37.594799999999999</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="37">
         <f t="shared" si="17"/>
         <v>83.543999999999997</v>
       </c>
@@ -8451,7 +8891,7 @@
         <f t="shared" si="16"/>
         <v>36.819000000000003</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="37">
         <f t="shared" si="17"/>
         <v>81.820000000000007</v>
       </c>
@@ -8534,7 +8974,7 @@
         <f t="shared" si="16"/>
         <v>41.674500000000002</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="37">
         <f t="shared" si="17"/>
         <v>92.61</v>
       </c>
@@ -8617,7 +9057,7 @@
         <f t="shared" si="16"/>
         <v>29.178000000000001</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="37">
         <f t="shared" si="17"/>
         <v>64.84</v>
       </c>
@@ -8700,7 +9140,7 @@
         <f t="shared" si="16"/>
         <v>27.923400000000004</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85" s="37">
         <f t="shared" si="17"/>
         <v>62.052000000000007</v>
       </c>
@@ -8783,7 +9223,7 @@
         <f t="shared" si="16"/>
         <v>24.57</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86" s="37">
         <f t="shared" si="17"/>
         <v>54.6</v>
       </c>
@@ -8866,7 +9306,7 @@
         <f t="shared" si="16"/>
         <v>31.038749999999997</v>
       </c>
-      <c r="J87" s="3">
+      <c r="J87" s="37">
         <f t="shared" si="17"/>
         <v>68.974999999999994</v>
       </c>
@@ -8949,7 +9389,7 @@
         <f t="shared" si="16"/>
         <v>23.895</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88" s="37">
         <f t="shared" si="17"/>
         <v>53.099999999999994</v>
       </c>
@@ -9032,7 +9472,7 @@
         <f t="shared" si="16"/>
         <v>33.561</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="37">
         <f t="shared" si="17"/>
         <v>74.58</v>
       </c>
@@ -9115,7 +9555,7 @@
         <f t="shared" si="16"/>
         <v>26.2224</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90" s="37">
         <f t="shared" si="17"/>
         <v>58.271999999999998</v>
       </c>
@@ -9198,7 +9638,7 @@
         <f t="shared" si="16"/>
         <v>35.683199999999999</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="37">
         <f t="shared" si="17"/>
         <v>79.295999999999992</v>
       </c>
@@ -9281,7 +9721,7 @@
         <f t="shared" si="16"/>
         <v>23.166</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92" s="37">
         <f t="shared" si="17"/>
         <v>51.48</v>
       </c>
@@ -9364,7 +9804,7 @@
         <f t="shared" si="16"/>
         <v>29.992500000000003</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93" s="37">
         <f t="shared" si="17"/>
         <v>66.650000000000006</v>
       </c>
@@ -9447,7 +9887,7 @@
         <f t="shared" si="16"/>
         <v>31.094999999999999</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="37">
         <f t="shared" si="17"/>
         <v>69.099999999999994</v>
       </c>
@@ -9530,7 +9970,7 @@
         <f t="shared" si="16"/>
         <v>23.125500000000002</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95" s="37">
         <f t="shared" si="17"/>
         <v>51.39</v>
       </c>
@@ -9613,7 +10053,7 @@
         <f t="shared" si="16"/>
         <v>33.399000000000001</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96" s="37">
         <f t="shared" si="17"/>
         <v>74.22</v>
       </c>
@@ -9696,7 +10136,7 @@
         <f t="shared" si="16"/>
         <v>22.285800000000002</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97" s="37">
         <f t="shared" si="17"/>
         <v>49.524000000000001</v>
       </c>
@@ -9779,7 +10219,7 @@
         <f t="shared" si="16"/>
         <v>27.053999999999998</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98" s="37">
         <f t="shared" si="17"/>
         <v>60.12</v>
       </c>
@@ -9862,7 +10302,7 @@
         <f t="shared" si="16"/>
         <v>24.803999999999998</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99" s="37">
         <f t="shared" si="17"/>
         <v>55.12</v>
       </c>
@@ -9945,7 +10385,7 @@
         <f t="shared" si="16"/>
         <v>38.920499999999997</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="37">
         <f t="shared" si="17"/>
         <v>86.49</v>
       </c>
@@ -10028,7 +10468,7 @@
         <f t="shared" si="16"/>
         <v>29.052000000000003</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="37">
         <f t="shared" si="17"/>
         <v>64.56</v>
       </c>
@@ -10111,7 +10551,7 @@
         <f t="shared" si="16"/>
         <v>33.048000000000002</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="37">
         <f t="shared" si="17"/>
         <v>73.44</v>
       </c>
@@ -10194,7 +10634,7 @@
         <f t="shared" si="16"/>
         <v>20.6037</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103" s="37">
         <f t="shared" si="17"/>
         <v>45.786000000000001</v>
       </c>
@@ -10252,7 +10692,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
+      <c r="J104" s="37"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
@@ -10265,7 +10705,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
+      <c r="J105" s="37"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
@@ -10278,7 +10718,7 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
+      <c r="J106" s="37"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
@@ -10291,7 +10731,7 @@
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
+      <c r="J107" s="37"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
@@ -10304,7 +10744,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
+      <c r="J108" s="37"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
@@ -10317,7 +10757,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
+      <c r="J109" s="37"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
@@ -10330,7 +10770,7 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
+      <c r="J110" s="37"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
@@ -10343,7 +10783,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
+      <c r="J111" s="37"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
@@ -10356,7 +10796,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
+      <c r="J112" s="37"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
@@ -10369,7 +10809,7 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
+      <c r="J113" s="37"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
@@ -10382,7 +10822,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
+      <c r="J114" s="37"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
@@ -10395,7 +10835,7 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
+      <c r="J115" s="37"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
@@ -10408,7 +10848,7 @@
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
+      <c r="J116" s="37"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
@@ -10421,7 +10861,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
+      <c r="J117" s="37"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
@@ -10434,7 +10874,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
+      <c r="J118" s="37"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
@@ -10447,7 +10887,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
+      <c r="J119" s="37"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
@@ -10460,7 +10900,7 @@
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
+      <c r="J120" s="37"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
@@ -10473,7 +10913,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
+      <c r="J121" s="37"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
@@ -10486,7 +10926,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
+      <c r="J122" s="37"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
@@ -10499,7 +10939,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
+      <c r="J123" s="37"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
@@ -10512,7 +10952,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
+      <c r="J124" s="37"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
@@ -10525,7 +10965,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
+      <c r="J125" s="37"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
@@ -10538,7 +10978,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
+      <c r="J126" s="37"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
@@ -10551,7 +10991,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
+      <c r="J127" s="37"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
@@ -10564,7 +11004,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
+      <c r="J128" s="37"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
@@ -10577,7 +11017,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
+      <c r="J129" s="37"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
@@ -10590,7 +11030,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
+      <c r="J130" s="37"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
@@ -10603,7 +11043,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
+      <c r="J131" s="37"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
@@ -10616,7 +11056,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
+      <c r="J132" s="37"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
       <c r="P132" s="4"/>
@@ -10629,7 +11069,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
+      <c r="J133" s="37"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
       <c r="P133" s="4"/>
@@ -10642,7 +11082,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
+      <c r="J134" s="37"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
       <c r="P134" s="4"/>
@@ -10655,7 +11095,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
+      <c r="J135" s="37"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
       <c r="P135" s="4"/>
@@ -10668,7 +11108,7 @@
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
+      <c r="J136" s="37"/>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
       <c r="P136" s="4"/>
@@ -10681,7 +11121,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
+      <c r="J137" s="37"/>
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
       <c r="P137" s="4"/>
@@ -10694,7 +11134,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
+      <c r="J138" s="37"/>
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
       <c r="P138" s="4"/>
@@ -10707,7 +11147,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
+      <c r="J139" s="37"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
       <c r="P139" s="4"/>
@@ -10720,7 +11160,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
+      <c r="J140" s="37"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
       <c r="P140" s="4"/>
@@ -10733,7 +11173,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
+      <c r="J141" s="37"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
       <c r="P141" s="4"/>
@@ -10746,7 +11186,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
+      <c r="J142" s="37"/>
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
       <c r="P142" s="4"/>
@@ -10759,7 +11199,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
+      <c r="J143" s="37"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
       <c r="P143" s="4"/>
@@ -10772,7 +11212,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
+      <c r="J144" s="37"/>
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
       <c r="P144" s="4"/>
@@ -10785,7 +11225,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
+      <c r="J145" s="37"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
@@ -10798,7 +11238,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
+      <c r="J146" s="37"/>
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
       <c r="P146" s="4"/>
@@ -10811,7 +11251,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
+      <c r="J147" s="37"/>
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
       <c r="P147" s="4"/>
@@ -10824,7 +11264,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
+      <c r="J148" s="37"/>
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
       <c r="P148" s="4"/>
@@ -10837,7 +11277,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
+      <c r="J149" s="37"/>
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
       <c r="P149" s="4"/>
@@ -10850,7 +11290,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
+      <c r="J150" s="37"/>
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
       <c r="P150" s="4"/>
@@ -10863,7 +11303,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
+      <c r="J151" s="37"/>
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
       <c r="P151" s="4"/>
@@ -10876,7 +11316,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
+      <c r="J152" s="37"/>
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
@@ -10889,7 +11329,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
+      <c r="J153" s="37"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
       <c r="P153" s="4"/>
@@ -10902,7 +11342,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
+      <c r="J154" s="37"/>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
       <c r="P154" s="4"/>
@@ -10915,7 +11355,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
+      <c r="J155" s="37"/>
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
       <c r="P155" s="4"/>
@@ -10928,7 +11368,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
+      <c r="J156" s="37"/>
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
       <c r="P156" s="4"/>
@@ -10941,7 +11381,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
+      <c r="J157" s="37"/>
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
       <c r="P157" s="4"/>
@@ -10954,7 +11394,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
+      <c r="J158" s="37"/>
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
       <c r="P158" s="4"/>
@@ -10967,7 +11407,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
+      <c r="J159" s="37"/>
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
       <c r="P159" s="4"/>
@@ -10980,7 +11420,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
+      <c r="J160" s="37"/>
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
       <c r="P160" s="4"/>
@@ -10993,7 +11433,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
+      <c r="J161" s="37"/>
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
       <c r="P161" s="4"/>
@@ -11006,7 +11446,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
+      <c r="J162" s="37"/>
       <c r="N162" s="4"/>
       <c r="O162" s="4"/>
       <c r="P162" s="4"/>
@@ -11019,7 +11459,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
+      <c r="J163" s="37"/>
       <c r="N163" s="4"/>
       <c r="O163" s="4"/>
       <c r="P163" s="4"/>
@@ -11032,7 +11472,7 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
+      <c r="J164" s="37"/>
       <c r="N164" s="4"/>
       <c r="O164" s="4"/>
       <c r="P164" s="4"/>
@@ -11045,7 +11485,7 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
+      <c r="J165" s="37"/>
       <c r="N165" s="4"/>
       <c r="O165" s="4"/>
       <c r="P165" s="4"/>
@@ -11058,7 +11498,7 @@
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
+      <c r="J166" s="37"/>
       <c r="N166" s="4"/>
       <c r="O166" s="4"/>
       <c r="P166" s="4"/>
@@ -11071,7 +11511,7 @@
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
+      <c r="J167" s="37"/>
       <c r="N167" s="4"/>
       <c r="O167" s="4"/>
       <c r="P167" s="4"/>
@@ -11084,7 +11524,7 @@
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
+      <c r="J168" s="37"/>
       <c r="N168" s="4"/>
       <c r="O168" s="4"/>
       <c r="P168" s="4"/>
@@ -11097,7 +11537,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
+      <c r="J169" s="37"/>
       <c r="N169" s="4"/>
       <c r="O169" s="4"/>
       <c r="P169" s="4"/>
@@ -11110,7 +11550,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
+      <c r="J170" s="37"/>
       <c r="N170" s="4"/>
       <c r="O170" s="4"/>
       <c r="P170" s="4"/>
@@ -11123,7 +11563,7 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
+      <c r="J171" s="37"/>
       <c r="N171" s="4"/>
       <c r="O171" s="4"/>
       <c r="P171" s="4"/>
@@ -11136,7 +11576,7 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
+      <c r="J172" s="37"/>
       <c r="N172" s="4"/>
       <c r="O172" s="4"/>
       <c r="P172" s="4"/>
@@ -11149,7 +11589,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
+      <c r="J173" s="37"/>
       <c r="N173" s="4"/>
       <c r="O173" s="4"/>
       <c r="P173" s="4"/>
@@ -11162,7 +11602,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
+      <c r="J174" s="37"/>
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
       <c r="P174" s="4"/>
@@ -11175,7 +11615,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
+      <c r="J175" s="37"/>
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
       <c r="P175" s="4"/>
@@ -11188,7 +11628,7 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
+      <c r="J176" s="37"/>
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
       <c r="P176" s="4"/>
@@ -11201,7 +11641,7 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
+      <c r="J177" s="37"/>
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
       <c r="P177" s="4"/>
@@ -11214,7 +11654,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
+      <c r="J178" s="37"/>
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
       <c r="P178" s="4"/>
@@ -11227,7 +11667,7 @@
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
+      <c r="J179" s="37"/>
       <c r="N179" s="4"/>
       <c r="O179" s="4"/>
       <c r="P179" s="4"/>
@@ -11240,7 +11680,7 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
+      <c r="J180" s="37"/>
       <c r="N180" s="4"/>
       <c r="O180" s="4"/>
       <c r="P180" s="4"/>
@@ -11253,7 +11693,7 @@
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
+      <c r="J181" s="37"/>
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
       <c r="P181" s="4"/>
@@ -11266,7 +11706,7 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
+      <c r="J182" s="37"/>
       <c r="N182" s="4"/>
       <c r="O182" s="4"/>
       <c r="P182" s="4"/>
@@ -11279,7 +11719,7 @@
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
+      <c r="J183" s="37"/>
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
       <c r="P183" s="4"/>
@@ -11292,7 +11732,7 @@
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
-      <c r="J184" s="3"/>
+      <c r="J184" s="37"/>
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
       <c r="P184" s="4"/>
@@ -11305,7 +11745,7 @@
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
+      <c r="J185" s="37"/>
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
       <c r="P185" s="4"/>
@@ -11318,7 +11758,7 @@
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
+      <c r="J186" s="37"/>
       <c r="N186" s="4"/>
       <c r="O186" s="4"/>
       <c r="P186" s="4"/>
@@ -11331,7 +11771,7 @@
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
+      <c r="J187" s="37"/>
       <c r="N187" s="4"/>
       <c r="O187" s="4"/>
       <c r="P187" s="4"/>
@@ -11344,7 +11784,7 @@
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
+      <c r="J188" s="37"/>
       <c r="N188" s="4"/>
       <c r="O188" s="4"/>
       <c r="P188" s="4"/>
@@ -11357,7 +11797,7 @@
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
+      <c r="J189" s="37"/>
       <c r="N189" s="4"/>
       <c r="O189" s="4"/>
       <c r="P189" s="4"/>
@@ -11370,7 +11810,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
+      <c r="J190" s="37"/>
       <c r="N190" s="4"/>
       <c r="O190" s="4"/>
       <c r="P190" s="4"/>
@@ -11383,7 +11823,7 @@
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
+      <c r="J191" s="37"/>
       <c r="N191" s="4"/>
       <c r="O191" s="4"/>
       <c r="P191" s="4"/>
@@ -11396,7 +11836,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
+      <c r="J192" s="37"/>
       <c r="N192" s="4"/>
       <c r="O192" s="4"/>
       <c r="P192" s="4"/>
@@ -11409,7 +11849,7 @@
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
+      <c r="J193" s="37"/>
       <c r="N193" s="4"/>
       <c r="O193" s="4"/>
       <c r="P193" s="4"/>
@@ -11422,7 +11862,7 @@
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
+      <c r="J194" s="37"/>
       <c r="N194" s="4"/>
       <c r="O194" s="4"/>
       <c r="P194" s="4"/>
@@ -11435,7 +11875,7 @@
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
+      <c r="J195" s="37"/>
       <c r="N195" s="4"/>
       <c r="O195" s="4"/>
       <c r="P195" s="4"/>
@@ -11448,7 +11888,7 @@
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
+      <c r="J196" s="37"/>
       <c r="N196" s="4"/>
       <c r="O196" s="4"/>
       <c r="P196" s="4"/>
@@ -11461,7 +11901,7 @@
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
+      <c r="J197" s="37"/>
       <c r="N197" s="4"/>
       <c r="O197" s="4"/>
       <c r="P197" s="4"/>
@@ -11474,7 +11914,7 @@
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
+      <c r="J198" s="37"/>
       <c r="N198" s="4"/>
       <c r="O198" s="4"/>
       <c r="P198" s="4"/>
@@ -11487,7 +11927,7 @@
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
+      <c r="J199" s="37"/>
       <c r="N199" s="4"/>
       <c r="O199" s="4"/>
       <c r="P199" s="4"/>
@@ -11500,7 +11940,7 @@
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
+      <c r="J200" s="37"/>
       <c r="N200" s="4"/>
       <c r="O200" s="4"/>
       <c r="P200" s="4"/>
@@ -11514,7 +11954,7 @@
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
+      <c r="J201" s="37"/>
       <c r="N201" s="4"/>
       <c r="O201" s="4"/>
       <c r="P201" s="4"/>
@@ -11528,7 +11968,7 @@
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
+      <c r="J202" s="37"/>
       <c r="N202" s="4"/>
       <c r="O202" s="4"/>
       <c r="P202" s="4"/>
@@ -11541,7 +11981,7 @@
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
+      <c r="J203" s="37"/>
       <c r="N203" s="4"/>
       <c r="O203" s="4"/>
       <c r="P203" s="4"/>
@@ -11554,7 +11994,7 @@
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
+      <c r="J204" s="37"/>
       <c r="N204" s="4"/>
       <c r="O204" s="4"/>
       <c r="P204" s="4"/>
@@ -11567,7 +12007,7 @@
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
+      <c r="J205" s="37"/>
       <c r="N205" s="4"/>
       <c r="O205" s="4"/>
       <c r="P205" s="4"/>
@@ -11580,7 +12020,7 @@
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
+      <c r="J206" s="37"/>
       <c r="N206" s="4"/>
       <c r="O206" s="4"/>
       <c r="P206" s="4"/>
@@ -11597,10 +12037,3062 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C11569-5476-FE4D-8F76-EAD413EE7C80}">
+  <dimension ref="A1:J105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="38" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="38" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="35">
+        <v>6.7613000000000003</v>
+      </c>
+      <c r="C2" s="35">
+        <v>6.9539999999999997</v>
+      </c>
+      <c r="D2" s="40">
+        <f>(C2-B2)/0.7918</f>
+        <v>0.24336953776206041</v>
+      </c>
+      <c r="E2">
+        <v>6.7615999999999996</v>
+      </c>
+      <c r="F2" s="35">
+        <f>E2-B2</f>
+        <v>2.9999999999930083E-4</v>
+      </c>
+      <c r="G2" s="35">
+        <v>13.6751</v>
+      </c>
+      <c r="H2" s="38">
+        <f>G2-E2</f>
+        <v>6.9135000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="35">
+        <v>6.7624000000000004</v>
+      </c>
+      <c r="C3" s="35">
+        <v>6.9524999999999997</v>
+      </c>
+      <c r="D3" s="40">
+        <f t="shared" ref="D3:D66" si="0">(C3-B3)/0.7918</f>
+        <v>0.24008588027279526</v>
+      </c>
+      <c r="E3">
+        <v>6.7633000000000001</v>
+      </c>
+      <c r="F3" s="35">
+        <f t="shared" ref="F3:F66" si="1">E3-B3</f>
+        <v>8.9999999999967883E-4</v>
+      </c>
+      <c r="G3" s="35">
+        <v>13.6914</v>
+      </c>
+      <c r="H3" s="38">
+        <f t="shared" ref="H3:H66" si="2">G3-E3</f>
+        <v>6.9280999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="35">
+        <v>6.7382999999999997</v>
+      </c>
+      <c r="C4" s="35">
+        <v>6.931</v>
+      </c>
+      <c r="D4" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24336953776206155</v>
+      </c>
+      <c r="E4">
+        <v>6.74</v>
+      </c>
+      <c r="F4" s="35">
+        <f t="shared" si="1"/>
+        <v>1.7000000000004789E-3</v>
+      </c>
+      <c r="G4" s="35">
+        <v>13.700200000000001</v>
+      </c>
+      <c r="H4" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9602000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="35">
+        <v>6.7668999999999997</v>
+      </c>
+      <c r="C5" s="35">
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="D5" s="40">
+        <f t="shared" si="0"/>
+        <v>0.23755998989643898</v>
+      </c>
+      <c r="E5">
+        <v>6.7653999999999996</v>
+      </c>
+      <c r="F5" s="35">
+        <f t="shared" si="1"/>
+        <v>-1.5000000000000568E-3</v>
+      </c>
+      <c r="G5" s="35">
+        <v>13.727600000000001</v>
+      </c>
+      <c r="H5" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9622000000000011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="35">
+        <v>6.7481999999999998</v>
+      </c>
+      <c r="C6" s="35">
+        <v>6.9055</v>
+      </c>
+      <c r="D6" s="40">
+        <f t="shared" si="0"/>
+        <v>0.19866127810053072</v>
+      </c>
+      <c r="E6">
+        <v>6.7489999999999997</v>
+      </c>
+      <c r="F6" s="35">
+        <f t="shared" si="1"/>
+        <v>7.9999999999991189E-4</v>
+      </c>
+      <c r="G6" s="35">
+        <v>13.674099999999999</v>
+      </c>
+      <c r="H6" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9250999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="35">
+        <v>6.7797000000000001</v>
+      </c>
+      <c r="C7" s="35">
+        <v>6.9657</v>
+      </c>
+      <c r="D7" s="40">
+        <f t="shared" si="0"/>
+        <v>0.23490780500126288</v>
+      </c>
+      <c r="E7">
+        <v>6.7811000000000003</v>
+      </c>
+      <c r="F7" s="35">
+        <f t="shared" si="1"/>
+        <v>1.4000000000002899E-3</v>
+      </c>
+      <c r="G7" s="35">
+        <v>13.753</v>
+      </c>
+      <c r="H7" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9718999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="35">
+        <v>6.7733999999999996</v>
+      </c>
+      <c r="C8" s="35">
+        <v>6.9652000000000003</v>
+      </c>
+      <c r="D8" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24223288709270099</v>
+      </c>
+      <c r="E8">
+        <v>6.7750000000000004</v>
+      </c>
+      <c r="F8" s="35">
+        <f t="shared" si="1"/>
+        <v>1.600000000000712E-3</v>
+      </c>
+      <c r="G8" s="35">
+        <v>13.702400000000001</v>
+      </c>
+      <c r="H8" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9274000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="35">
+        <v>6.7495000000000003</v>
+      </c>
+      <c r="C9" s="35">
+        <v>6.9444999999999997</v>
+      </c>
+      <c r="D9" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24627431169487168</v>
+      </c>
+      <c r="E9">
+        <v>6.7502000000000004</v>
+      </c>
+      <c r="F9" s="35">
+        <f t="shared" si="1"/>
+        <v>7.0000000000014495E-4</v>
+      </c>
+      <c r="G9" s="35">
+        <v>13.7143</v>
+      </c>
+      <c r="H9" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9640999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="35">
+        <v>6.7382999999999997</v>
+      </c>
+      <c r="C10" s="35">
+        <v>6.9055999999999997</v>
+      </c>
+      <c r="D10" s="40">
+        <f t="shared" si="0"/>
+        <v>0.21129072998231879</v>
+      </c>
+      <c r="E10">
+        <v>6.7386999999999997</v>
+      </c>
+      <c r="F10" s="35">
+        <f t="shared" si="1"/>
+        <v>3.9999999999995595E-4</v>
+      </c>
+      <c r="G10" s="35">
+        <v>13.583500000000001</v>
+      </c>
+      <c r="H10" s="38">
+        <f t="shared" si="2"/>
+        <v>6.8448000000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="35">
+        <v>6.7622999999999998</v>
+      </c>
+      <c r="C11" s="35">
+        <v>6.9112999999999998</v>
+      </c>
+      <c r="D11" s="40">
+        <f t="shared" si="0"/>
+        <v>0.18817883303864616</v>
+      </c>
+      <c r="E11">
+        <v>6.7640000000000002</v>
+      </c>
+      <c r="F11" s="35">
+        <f t="shared" si="1"/>
+        <v>1.7000000000004789E-3</v>
+      </c>
+      <c r="G11" s="35">
+        <v>13.6905</v>
+      </c>
+      <c r="H11" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9264999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="35">
+        <v>6.7545000000000002</v>
+      </c>
+      <c r="C12" s="35">
+        <v>6.9234999999999998</v>
+      </c>
+      <c r="D12" s="40">
+        <f t="shared" si="0"/>
+        <v>0.21343773680222228</v>
+      </c>
+      <c r="E12">
+        <v>6.7563000000000004</v>
+      </c>
+      <c r="F12" s="35">
+        <f t="shared" si="1"/>
+        <v>1.8000000000002458E-3</v>
+      </c>
+      <c r="G12" s="35">
+        <v>13.7378</v>
+      </c>
+      <c r="H12" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9814999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="35">
+        <v>6.7453000000000003</v>
+      </c>
+      <c r="C13" s="35">
+        <v>6.9351000000000003</v>
+      </c>
+      <c r="D13" s="40">
+        <f t="shared" si="0"/>
+        <v>0.23970699671634249</v>
+      </c>
+      <c r="E13">
+        <v>6.7473000000000001</v>
+      </c>
+      <c r="F13" s="35">
+        <f t="shared" si="1"/>
+        <v>1.9999999999997797E-3</v>
+      </c>
+      <c r="G13" s="35">
+        <v>13.7037</v>
+      </c>
+      <c r="H13" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9563999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="35">
+        <v>6.7329999999999997</v>
+      </c>
+      <c r="C14" s="35">
+        <v>6.9283999999999999</v>
+      </c>
+      <c r="D14" s="40">
+        <f t="shared" si="0"/>
+        <v>0.2467794897701443</v>
+      </c>
+      <c r="E14">
+        <v>6.734</v>
+      </c>
+      <c r="F14" s="35">
+        <f t="shared" si="1"/>
+        <v>1.000000000000334E-3</v>
+      </c>
+      <c r="G14" s="35">
+        <v>13.6922</v>
+      </c>
+      <c r="H14" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9581999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="35">
+        <v>6.7535999999999996</v>
+      </c>
+      <c r="C15" s="35">
+        <v>6.9417999999999997</v>
+      </c>
+      <c r="D15" s="40">
+        <f t="shared" si="0"/>
+        <v>0.23768628441525658</v>
+      </c>
+      <c r="E15">
+        <v>6.7542</v>
+      </c>
+      <c r="F15" s="35">
+        <f t="shared" si="1"/>
+        <v>6.0000000000037801E-4</v>
+      </c>
+      <c r="G15" s="35">
+        <v>13.733599999999999</v>
+      </c>
+      <c r="H15" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9793999999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="35">
+        <v>6.7789999999999999</v>
+      </c>
+      <c r="C16" s="35">
+        <v>6.9718</v>
+      </c>
+      <c r="D16" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24349583228087912</v>
+      </c>
+      <c r="E16">
+        <v>6.7821999999999996</v>
+      </c>
+      <c r="F16" s="35">
+        <f t="shared" si="1"/>
+        <v>3.1999999999996476E-3</v>
+      </c>
+      <c r="G16" s="35">
+        <v>13.6867</v>
+      </c>
+      <c r="H16" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9045000000000005</v>
+      </c>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="35">
+        <v>6.7694999999999999</v>
+      </c>
+      <c r="C17" s="35">
+        <v>6.9599000000000002</v>
+      </c>
+      <c r="D17" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24046476382925028</v>
+      </c>
+      <c r="E17">
+        <v>6.7706999999999997</v>
+      </c>
+      <c r="F17" s="35">
+        <f t="shared" si="1"/>
+        <v>1.1999999999998678E-3</v>
+      </c>
+      <c r="G17" s="35">
+        <v>13.7082</v>
+      </c>
+      <c r="H17" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="35">
+        <v>6.7531999999999996</v>
+      </c>
+      <c r="C18" s="35">
+        <v>6.9390000000000001</v>
+      </c>
+      <c r="D18" s="40">
+        <f t="shared" si="0"/>
+        <v>0.23465521596362771</v>
+      </c>
+      <c r="E18">
+        <v>6.7546999999999997</v>
+      </c>
+      <c r="F18" s="35">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000568E-3</v>
+      </c>
+      <c r="G18" s="35">
+        <v>13.67</v>
+      </c>
+      <c r="H18" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9153000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="35">
+        <v>6.7352999999999996</v>
+      </c>
+      <c r="C19" s="35">
+        <v>6.9276</v>
+      </c>
+      <c r="D19" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24286435968679007</v>
+      </c>
+      <c r="E19">
+        <v>6.7370000000000001</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" si="1"/>
+        <v>1.7000000000004789E-3</v>
+      </c>
+      <c r="G19" s="35">
+        <v>13.722300000000001</v>
+      </c>
+      <c r="H19" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9853000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="35">
+        <v>6.7378</v>
+      </c>
+      <c r="C20" s="35">
+        <v>6.9306000000000001</v>
+      </c>
+      <c r="D20" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24349583228087912</v>
+      </c>
+      <c r="E20">
+        <v>6.7384000000000004</v>
+      </c>
+      <c r="F20" s="35">
+        <f t="shared" si="1"/>
+        <v>6.0000000000037801E-4</v>
+      </c>
+      <c r="G20" s="35">
+        <v>13.6995</v>
+      </c>
+      <c r="H20" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9611000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="35">
+        <v>6.7533000000000003</v>
+      </c>
+      <c r="C21" s="35">
+        <v>6.9423000000000004</v>
+      </c>
+      <c r="D21" s="40">
+        <f t="shared" si="0"/>
+        <v>0.23869664056579953</v>
+      </c>
+      <c r="E21">
+        <v>6.7558999999999996</v>
+      </c>
+      <c r="F21" s="35">
+        <f t="shared" si="1"/>
+        <v>2.5999999999992696E-3</v>
+      </c>
+      <c r="G21" s="35">
+        <v>13.670299999999999</v>
+      </c>
+      <c r="H21" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9143999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="35">
+        <v>6.7769000000000004</v>
+      </c>
+      <c r="C22" s="35">
+        <v>6.9652000000000003</v>
+      </c>
+      <c r="D22" s="40">
+        <f t="shared" si="0"/>
+        <v>0.23781257893407418</v>
+      </c>
+      <c r="E22">
+        <v>6.7797000000000001</v>
+      </c>
+      <c r="F22" s="35">
+        <f t="shared" si="1"/>
+        <v>2.7999999999996916E-3</v>
+      </c>
+      <c r="G22" s="35">
+        <v>13.7369</v>
+      </c>
+      <c r="H22" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9572000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="35">
+        <v>6.7427000000000001</v>
+      </c>
+      <c r="C23" s="35">
+        <v>6.9405000000000001</v>
+      </c>
+      <c r="D23" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24981055822177317</v>
+      </c>
+      <c r="E23">
+        <v>6.7447999999999997</v>
+      </c>
+      <c r="F23" s="35">
+        <f t="shared" si="1"/>
+        <v>2.0999999999995467E-3</v>
+      </c>
+      <c r="G23" s="35">
+        <v>13.6858</v>
+      </c>
+      <c r="H23" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9410000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="35">
+        <v>6.7525000000000004</v>
+      </c>
+      <c r="C24" s="35">
+        <v>6.9414999999999996</v>
+      </c>
+      <c r="D24" s="40">
+        <f t="shared" si="0"/>
+        <v>0.23869664056579842</v>
+      </c>
+      <c r="E24">
+        <v>6.7553000000000001</v>
+      </c>
+      <c r="F24" s="35">
+        <f t="shared" si="1"/>
+        <v>2.7999999999996916E-3</v>
+      </c>
+      <c r="G24" s="35">
+        <v>13.742900000000001</v>
+      </c>
+      <c r="H24" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9876000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="35">
+        <v>6.734</v>
+      </c>
+      <c r="C25" s="35">
+        <v>6.9279999999999999</v>
+      </c>
+      <c r="D25" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24501136650669356</v>
+      </c>
+      <c r="E25">
+        <v>6.7358000000000002</v>
+      </c>
+      <c r="F25" s="35">
+        <f t="shared" si="1"/>
+        <v>1.8000000000002458E-3</v>
+      </c>
+      <c r="G25" s="35">
+        <v>13.7127</v>
+      </c>
+      <c r="H25" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9768999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="35">
+        <v>6.7422000000000004</v>
+      </c>
+      <c r="C26" s="35">
+        <v>6.9353999999999996</v>
+      </c>
+      <c r="D26" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24400101035614949</v>
+      </c>
+      <c r="E26">
+        <v>6.7451999999999996</v>
+      </c>
+      <c r="F26" s="35">
+        <f t="shared" si="1"/>
+        <v>2.9999999999992255E-3</v>
+      </c>
+      <c r="G26" s="35">
+        <v>13.659700000000001</v>
+      </c>
+      <c r="H26" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9145000000000012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="35">
+        <v>6.7413999999999996</v>
+      </c>
+      <c r="C27" s="35">
+        <v>6.9424000000000001</v>
+      </c>
+      <c r="D27" s="40">
+        <f t="shared" si="0"/>
+        <v>0.25385198282394611</v>
+      </c>
+      <c r="E27">
+        <v>6.7454999999999998</v>
+      </c>
+      <c r="F27" s="35">
+        <f t="shared" si="1"/>
+        <v>4.1000000000002146E-3</v>
+      </c>
+      <c r="G27" s="35">
+        <v>13.6745</v>
+      </c>
+      <c r="H27" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9290000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="35">
+        <v>6.7237999999999998</v>
+      </c>
+      <c r="C28" s="35">
+        <v>6.9250999999999996</v>
+      </c>
+      <c r="D28" s="40">
+        <f t="shared" si="0"/>
+        <v>0.25423086638039888</v>
+      </c>
+      <c r="E28">
+        <v>6.7271000000000001</v>
+      </c>
+      <c r="F28" s="35">
+        <f t="shared" si="1"/>
+        <v>3.3000000000003027E-3</v>
+      </c>
+      <c r="G28" s="35">
+        <v>13.732200000000001</v>
+      </c>
+      <c r="H28" s="38">
+        <f t="shared" si="2"/>
+        <v>7.0051000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="35">
+        <v>6.7592999999999996</v>
+      </c>
+      <c r="C29" s="35">
+        <v>6.9341999999999997</v>
+      </c>
+      <c r="D29" s="40">
+        <f t="shared" si="0"/>
+        <v>0.22088911341247799</v>
+      </c>
+      <c r="E29" s="35">
+        <v>6.7587999999999999</v>
+      </c>
+      <c r="F29" s="35">
+        <f t="shared" si="1"/>
+        <v>-4.9999999999972289E-4</v>
+      </c>
+      <c r="G29" s="35">
+        <v>13.6386</v>
+      </c>
+      <c r="H29" s="38">
+        <f t="shared" si="2"/>
+        <v>6.8798000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="35">
+        <v>6.7510000000000003</v>
+      </c>
+      <c r="C30" s="35">
+        <v>6.9278000000000004</v>
+      </c>
+      <c r="D30" s="40">
+        <f t="shared" si="0"/>
+        <v>0.22328870927001779</v>
+      </c>
+      <c r="E30" s="35">
+        <v>6.7508999999999997</v>
+      </c>
+      <c r="F30" s="35">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000065512E-4</v>
+      </c>
+      <c r="G30" s="35">
+        <v>13.607900000000001</v>
+      </c>
+      <c r="H30" s="38">
+        <f t="shared" si="2"/>
+        <v>6.8570000000000011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="35">
+        <v>6.7323000000000004</v>
+      </c>
+      <c r="C31" s="35">
+        <v>6.9058999999999999</v>
+      </c>
+      <c r="D31" s="40">
+        <f t="shared" si="0"/>
+        <v>0.21924728466784485</v>
+      </c>
+      <c r="E31" s="35">
+        <v>6.7321999999999997</v>
+      </c>
+      <c r="F31" s="35">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000065512E-4</v>
+      </c>
+      <c r="G31" s="35">
+        <v>13.7165</v>
+      </c>
+      <c r="H31" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9843000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="35">
+        <v>6.7434000000000003</v>
+      </c>
+      <c r="C32" s="35">
+        <v>6.9194000000000004</v>
+      </c>
+      <c r="D32" s="40">
+        <f t="shared" si="0"/>
+        <v>0.22227835311947483</v>
+      </c>
+      <c r="E32" s="35">
+        <v>6.7434000000000003</v>
+      </c>
+      <c r="F32" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="35">
+        <v>13.782</v>
+      </c>
+      <c r="H32" s="38">
+        <f t="shared" si="2"/>
+        <v>7.0385999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="35">
+        <v>6.7499000000000002</v>
+      </c>
+      <c r="C33" s="35">
+        <v>6.931</v>
+      </c>
+      <c r="D33" s="40">
+        <f t="shared" si="0"/>
+        <v>0.22871937357918645</v>
+      </c>
+      <c r="E33">
+        <v>6.7507999999999999</v>
+      </c>
+      <c r="F33" s="35">
+        <f t="shared" si="1"/>
+        <v>8.9999999999967883E-4</v>
+      </c>
+      <c r="G33" s="35">
+        <v>13.7729</v>
+      </c>
+      <c r="H33" s="38">
+        <f t="shared" si="2"/>
+        <v>7.0221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="35">
+        <v>6.7724000000000002</v>
+      </c>
+      <c r="C34" s="35">
+        <v>6.9515000000000002</v>
+      </c>
+      <c r="D34" s="40">
+        <f t="shared" si="0"/>
+        <v>0.22619348320282906</v>
+      </c>
+      <c r="E34" s="35">
+        <v>6.7713999999999999</v>
+      </c>
+      <c r="F34" s="35">
+        <f t="shared" si="1"/>
+        <v>-1.000000000000334E-3</v>
+      </c>
+      <c r="G34" s="35">
+        <v>13.7087</v>
+      </c>
+      <c r="H34" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9373000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="35">
+        <v>6.7576000000000001</v>
+      </c>
+      <c r="C35" s="35">
+        <v>6.9363000000000001</v>
+      </c>
+      <c r="D35" s="40">
+        <f t="shared" si="0"/>
+        <v>0.22568830512755758</v>
+      </c>
+      <c r="E35" s="35">
+        <v>6.7573999999999996</v>
+      </c>
+      <c r="F35" s="35">
+        <f t="shared" si="1"/>
+        <v>-2.0000000000042206E-4</v>
+      </c>
+      <c r="G35" s="35">
+        <v>13.6943</v>
+      </c>
+      <c r="H35" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9369000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="35">
+        <v>6.7404999999999999</v>
+      </c>
+      <c r="C36" s="35">
+        <v>6.9191000000000003</v>
+      </c>
+      <c r="D36" s="40">
+        <f t="shared" si="0"/>
+        <v>0.22556201060873998</v>
+      </c>
+      <c r="E36" s="35">
+        <v>6.7405999999999997</v>
+      </c>
+      <c r="F36" s="35">
+        <f t="shared" si="1"/>
+        <v>9.9999999999766942E-5</v>
+      </c>
+      <c r="G36" s="35">
+        <v>13.713200000000001</v>
+      </c>
+      <c r="H36" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9726000000000008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="35">
+        <v>6.7712000000000003</v>
+      </c>
+      <c r="C37" s="35">
+        <v>6.9473000000000003</v>
+      </c>
+      <c r="D37" s="40">
+        <f t="shared" si="0"/>
+        <v>0.2224046476382924</v>
+      </c>
+      <c r="E37" s="35">
+        <v>6.7710999999999997</v>
+      </c>
+      <c r="F37" s="35">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000065512E-4</v>
+      </c>
+      <c r="G37" s="35">
+        <v>13.674300000000001</v>
+      </c>
+      <c r="H37" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9032000000000009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="35">
+        <v>6.7663000000000002</v>
+      </c>
+      <c r="C38" s="35">
+        <v>6.9425999999999997</v>
+      </c>
+      <c r="D38" s="40">
+        <f t="shared" si="0"/>
+        <v>0.2226572366759276</v>
+      </c>
+      <c r="E38" s="35">
+        <v>6.7648000000000001</v>
+      </c>
+      <c r="F38" s="35">
+        <f t="shared" si="1"/>
+        <v>-1.5000000000000568E-3</v>
+      </c>
+      <c r="G38" s="35">
+        <v>13.7614</v>
+      </c>
+      <c r="H38" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9965999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="35">
+        <v>6.7659000000000002</v>
+      </c>
+      <c r="C39" s="35">
+        <v>6.9401000000000002</v>
+      </c>
+      <c r="D39" s="40">
+        <f t="shared" si="0"/>
+        <v>0.22000505178075261</v>
+      </c>
+      <c r="E39" s="35">
+        <v>6.7674000000000003</v>
+      </c>
+      <c r="F39" s="35">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000568E-3</v>
+      </c>
+      <c r="G39" s="35">
+        <v>13.7285</v>
+      </c>
+      <c r="H39" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9611000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="35">
+        <v>6.7648000000000001</v>
+      </c>
+      <c r="C40" s="35">
+        <v>6.9480000000000004</v>
+      </c>
+      <c r="D40" s="40">
+        <f t="shared" si="0"/>
+        <v>0.23137155847436255</v>
+      </c>
+      <c r="E40">
+        <v>6.7659000000000002</v>
+      </c>
+      <c r="F40" s="35">
+        <f t="shared" si="1"/>
+        <v>1.1000000000001009E-3</v>
+      </c>
+      <c r="G40" s="35">
+        <v>13.715999999999999</v>
+      </c>
+      <c r="H40" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9500999999999991</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="35">
+        <v>6.7698999999999998</v>
+      </c>
+      <c r="C41" s="35">
+        <v>6.9543999999999997</v>
+      </c>
+      <c r="D41" s="40">
+        <f t="shared" si="0"/>
+        <v>0.23301338721899456</v>
+      </c>
+      <c r="E41">
+        <v>6.7708000000000004</v>
+      </c>
+      <c r="F41" s="35">
+        <f t="shared" si="1"/>
+        <v>9.0000000000056701E-4</v>
+      </c>
+      <c r="G41" s="35">
+        <v>13.747199999999999</v>
+      </c>
+      <c r="H41" s="38">
+        <f t="shared" si="2"/>
+        <v>6.976399999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="35">
+        <v>6.7488000000000001</v>
+      </c>
+      <c r="C42" s="35">
+        <v>6.9344999999999999</v>
+      </c>
+      <c r="D42" s="40">
+        <f t="shared" si="0"/>
+        <v>0.234528921444809</v>
+      </c>
+      <c r="E42">
+        <v>6.7496</v>
+      </c>
+      <c r="F42" s="35">
+        <f t="shared" si="1"/>
+        <v>7.9999999999991189E-4</v>
+      </c>
+      <c r="G42">
+        <v>13.7126</v>
+      </c>
+      <c r="H42" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9630000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="35">
+        <v>6.7229000000000001</v>
+      </c>
+      <c r="C43" s="35">
+        <v>6.8903999999999996</v>
+      </c>
+      <c r="D43" s="40">
+        <f t="shared" si="0"/>
+        <v>0.21154331901995396</v>
+      </c>
+      <c r="E43">
+        <v>6.7239000000000004</v>
+      </c>
+      <c r="F43" s="35">
+        <f t="shared" si="1"/>
+        <v>1.000000000000334E-3</v>
+      </c>
+      <c r="G43" s="35">
+        <v>13.693899999999999</v>
+      </c>
+      <c r="H43" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9699999999999989</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="35">
+        <v>6.7610000000000001</v>
+      </c>
+      <c r="C44" s="35">
+        <v>6.9466999999999999</v>
+      </c>
+      <c r="D44" s="40">
+        <f t="shared" si="0"/>
+        <v>0.234528921444809</v>
+      </c>
+      <c r="E44">
+        <v>6.7626999999999997</v>
+      </c>
+      <c r="F44" s="35">
+        <f t="shared" si="1"/>
+        <v>1.6999999999995907E-3</v>
+      </c>
+      <c r="G44" s="35">
+        <v>13.746600000000001</v>
+      </c>
+      <c r="H44" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9839000000000011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="35">
+        <v>6.7432999999999996</v>
+      </c>
+      <c r="C45" s="35">
+        <v>6.9236000000000004</v>
+      </c>
+      <c r="D45" s="40">
+        <f t="shared" si="0"/>
+        <v>0.22770901742864461</v>
+      </c>
+      <c r="E45">
+        <v>6.7438000000000002</v>
+      </c>
+      <c r="F45" s="35">
+        <f t="shared" si="1"/>
+        <v>5.0000000000061107E-4</v>
+      </c>
+      <c r="G45" s="35">
+        <v>13.7058</v>
+      </c>
+      <c r="H45" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9619999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="35">
+        <v>6.7504999999999997</v>
+      </c>
+      <c r="C46" s="35">
+        <v>6.9382000000000001</v>
+      </c>
+      <c r="D46" s="40">
+        <f t="shared" si="0"/>
+        <v>0.2370548118211675</v>
+      </c>
+      <c r="E46">
+        <v>6.7519</v>
+      </c>
+      <c r="F46" s="35">
+        <f t="shared" si="1"/>
+        <v>1.4000000000002899E-3</v>
+      </c>
+      <c r="G46" s="35">
+        <v>13.742100000000001</v>
+      </c>
+      <c r="H46" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9902000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="35">
+        <v>6.7636000000000003</v>
+      </c>
+      <c r="C47" s="35">
+        <v>6.9385000000000003</v>
+      </c>
+      <c r="D47" s="40">
+        <f t="shared" si="0"/>
+        <v>0.22088911341247799</v>
+      </c>
+      <c r="E47" s="35">
+        <v>6.7634999999999996</v>
+      </c>
+      <c r="F47" s="35">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000065512E-4</v>
+      </c>
+      <c r="G47" s="35">
+        <v>13.737</v>
+      </c>
+      <c r="H47" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9735000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="35">
+        <v>6.7404000000000002</v>
+      </c>
+      <c r="C48" s="35">
+        <v>6.9099000000000004</v>
+      </c>
+      <c r="D48" s="40">
+        <f t="shared" si="0"/>
+        <v>0.21406920939631247</v>
+      </c>
+      <c r="E48" s="35">
+        <v>6.74</v>
+      </c>
+      <c r="F48" s="35">
+        <f t="shared" si="1"/>
+        <v>-3.9999999999995595E-4</v>
+      </c>
+      <c r="G48" s="35">
+        <v>13.7646</v>
+      </c>
+      <c r="H48" s="38">
+        <f t="shared" si="2"/>
+        <v>7.0245999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" s="35">
+        <v>6.7408999999999999</v>
+      </c>
+      <c r="C49" s="35">
+        <v>6.9183000000000003</v>
+      </c>
+      <c r="D49" s="40">
+        <f t="shared" si="0"/>
+        <v>0.22404647638292555</v>
+      </c>
+      <c r="E49" s="35">
+        <v>6.7405999999999997</v>
+      </c>
+      <c r="F49" s="35">
+        <f t="shared" si="1"/>
+        <v>-3.00000000000189E-4</v>
+      </c>
+      <c r="G49" s="35">
+        <v>13.7012</v>
+      </c>
+      <c r="H49" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9606000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="35">
+        <v>6.7350000000000003</v>
+      </c>
+      <c r="C50" s="35">
+        <v>6.9263000000000003</v>
+      </c>
+      <c r="D50" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24160141449861081</v>
+      </c>
+      <c r="E50" s="35">
+        <v>6.7285000000000004</v>
+      </c>
+      <c r="F50" s="35">
+        <f t="shared" si="1"/>
+        <v>-6.4999999999999503E-3</v>
+      </c>
+      <c r="G50" s="35">
+        <v>13.7302</v>
+      </c>
+      <c r="H50" s="38">
+        <f t="shared" si="2"/>
+        <v>7.0016999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="35">
+        <v>6.7343999999999999</v>
+      </c>
+      <c r="C51" s="35">
+        <v>6.9252000000000002</v>
+      </c>
+      <c r="D51" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24096994190452173</v>
+      </c>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35">
+        <f t="shared" si="1"/>
+        <v>-6.7343999999999999</v>
+      </c>
+      <c r="G51" s="35">
+        <v>13.717499999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="35">
+        <v>6.7488000000000001</v>
+      </c>
+      <c r="C52" s="35">
+        <v>6.9389000000000003</v>
+      </c>
+      <c r="D52" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24008588027279637</v>
+      </c>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35">
+        <f t="shared" si="1"/>
+        <v>-6.7488000000000001</v>
+      </c>
+      <c r="G52" s="35">
+        <v>13.7113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="35">
+        <v>6.7691999999999997</v>
+      </c>
+      <c r="C53" s="35">
+        <v>6.9580000000000002</v>
+      </c>
+      <c r="D53" s="40">
+        <f t="shared" si="0"/>
+        <v>0.23844405152816436</v>
+      </c>
+      <c r="E53" s="35">
+        <v>6.7694999999999999</v>
+      </c>
+      <c r="F53" s="35">
+        <f t="shared" si="1"/>
+        <v>3.00000000000189E-4</v>
+      </c>
+      <c r="G53" s="35">
+        <v>6.7442000000000002</v>
+      </c>
+      <c r="H53" s="38">
+        <f t="shared" si="2"/>
+        <v>-2.5299999999999656E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="35">
+        <v>6.75</v>
+      </c>
+      <c r="C54" s="35">
+        <v>6.9371</v>
+      </c>
+      <c r="D54" s="40">
+        <f t="shared" si="0"/>
+        <v>0.23629704470825974</v>
+      </c>
+      <c r="E54">
+        <v>6.7507000000000001</v>
+      </c>
+      <c r="F54" s="35">
+        <f t="shared" si="1"/>
+        <v>7.0000000000014495E-4</v>
+      </c>
+      <c r="G54" s="35">
+        <v>13.7362</v>
+      </c>
+      <c r="H54" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9855</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" s="35">
+        <v>6.7282000000000002</v>
+      </c>
+      <c r="C55" s="35">
+        <v>6.9076000000000004</v>
+      </c>
+      <c r="D55" s="40">
+        <f t="shared" si="0"/>
+        <v>0.22657236675928294</v>
+      </c>
+      <c r="E55" s="35">
+        <v>6.7309999999999999</v>
+      </c>
+      <c r="F55" s="35">
+        <f t="shared" si="1"/>
+        <v>2.7999999999996916E-3</v>
+      </c>
+      <c r="G55" s="35">
+        <v>13.6957</v>
+      </c>
+      <c r="H55" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9647000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="35">
+        <v>6.7310999999999996</v>
+      </c>
+      <c r="C56" s="35">
+        <v>6.9215</v>
+      </c>
+      <c r="D56" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24046476382925028</v>
+      </c>
+      <c r="E56">
+        <v>6.7319000000000004</v>
+      </c>
+      <c r="F56" s="35">
+        <f t="shared" si="1"/>
+        <v>8.0000000000080007E-4</v>
+      </c>
+      <c r="G56" s="35">
+        <v>13.7377</v>
+      </c>
+      <c r="H56" s="38">
+        <f t="shared" si="2"/>
+        <v>7.0057999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="35">
+        <v>6.7671000000000001</v>
+      </c>
+      <c r="C57" s="35">
+        <v>6.9585999999999997</v>
+      </c>
+      <c r="D57" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24185400353624598</v>
+      </c>
+      <c r="E57">
+        <v>6.7694999999999999</v>
+      </c>
+      <c r="F57" s="35">
+        <f t="shared" si="1"/>
+        <v>2.3999999999997357E-3</v>
+      </c>
+      <c r="G57" s="35">
+        <v>13.661099999999999</v>
+      </c>
+      <c r="H57" s="38">
+        <f t="shared" si="2"/>
+        <v>6.8915999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" s="35">
+        <v>6.7423000000000002</v>
+      </c>
+      <c r="C58" s="35">
+        <v>6.9345999999999997</v>
+      </c>
+      <c r="D58" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24286435968678893</v>
+      </c>
+      <c r="E58">
+        <v>6.7443999999999997</v>
+      </c>
+      <c r="F58" s="35">
+        <f t="shared" si="1"/>
+        <v>2.0999999999995467E-3</v>
+      </c>
+      <c r="G58" s="35">
+        <v>13.7202</v>
+      </c>
+      <c r="H58" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9758000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="35">
+        <v>6.7477</v>
+      </c>
+      <c r="C59" s="35">
+        <v>6.9398</v>
+      </c>
+      <c r="D59" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24261177064915376</v>
+      </c>
+      <c r="E59">
+        <v>6.7477999999999998</v>
+      </c>
+      <c r="F59" s="35">
+        <f t="shared" si="1"/>
+        <v>9.9999999999766942E-5</v>
+      </c>
+      <c r="G59" s="35">
+        <v>13.7248</v>
+      </c>
+      <c r="H59" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9770000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="35">
+        <v>6.7458999999999998</v>
+      </c>
+      <c r="C60" s="35">
+        <v>6.9337999999999997</v>
+      </c>
+      <c r="D60" s="40">
+        <f t="shared" si="0"/>
+        <v>0.2373074008588027</v>
+      </c>
+      <c r="E60">
+        <v>6.7511999999999999</v>
+      </c>
+      <c r="F60" s="35">
+        <f t="shared" si="1"/>
+        <v>5.3000000000000824E-3</v>
+      </c>
+      <c r="G60">
+        <v>13.6884</v>
+      </c>
+      <c r="H60" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9371999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" s="35">
+        <v>6.7675000000000001</v>
+      </c>
+      <c r="C61" s="35">
+        <v>6.9558999999999997</v>
+      </c>
+      <c r="D61" s="40">
+        <f t="shared" si="0"/>
+        <v>0.23793887345289175</v>
+      </c>
+      <c r="E61">
+        <v>6.7706999999999997</v>
+      </c>
+      <c r="F61" s="35">
+        <f t="shared" si="1"/>
+        <v>3.1999999999996476E-3</v>
+      </c>
+      <c r="G61">
+        <v>13.7262</v>
+      </c>
+      <c r="H61" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9555000000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" s="35">
+        <v>6.79</v>
+      </c>
+      <c r="C62" s="35">
+        <v>6.9794999999999998</v>
+      </c>
+      <c r="D62" s="40">
+        <f t="shared" si="0"/>
+        <v>0.23932811315988861</v>
+      </c>
+      <c r="E62">
+        <v>6.7953999999999999</v>
+      </c>
+      <c r="F62" s="35">
+        <f t="shared" si="1"/>
+        <v>5.3999999999998494E-3</v>
+      </c>
+      <c r="G62">
+        <v>13.740600000000001</v>
+      </c>
+      <c r="H62" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9452000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63" s="35">
+        <v>6.7755999999999998</v>
+      </c>
+      <c r="C63" s="35">
+        <v>6.9634999999999998</v>
+      </c>
+      <c r="D63" s="40">
+        <f t="shared" si="0"/>
+        <v>0.2373074008588027</v>
+      </c>
+      <c r="E63">
+        <v>6.7794999999999996</v>
+      </c>
+      <c r="F63" s="35">
+        <f t="shared" si="1"/>
+        <v>3.8999999999997925E-3</v>
+      </c>
+      <c r="G63">
+        <v>13.781499999999999</v>
+      </c>
+      <c r="H63" s="38">
+        <f t="shared" si="2"/>
+        <v>7.0019999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="35">
+        <v>6.7511000000000001</v>
+      </c>
+      <c r="C64" s="35">
+        <v>6.94</v>
+      </c>
+      <c r="D64" s="40">
+        <f t="shared" si="0"/>
+        <v>0.23857034604698193</v>
+      </c>
+      <c r="E64">
+        <v>6.7530999999999999</v>
+      </c>
+      <c r="F64" s="35">
+        <f t="shared" si="1"/>
+        <v>1.9999999999997797E-3</v>
+      </c>
+      <c r="G64" s="35">
+        <v>13.7629</v>
+      </c>
+      <c r="H64" s="38">
+        <f t="shared" si="2"/>
+        <v>7.0098000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" s="35">
+        <v>6.7496999999999998</v>
+      </c>
+      <c r="C65" s="35">
+        <v>6.9425999999999997</v>
+      </c>
+      <c r="D65" s="40">
+        <f t="shared" si="0"/>
+        <v>0.24362212679969672</v>
+      </c>
+      <c r="E65">
+        <v>6.7510000000000003</v>
+      </c>
+      <c r="F65" s="35">
+        <f t="shared" si="1"/>
+        <v>1.300000000000523E-3</v>
+      </c>
+      <c r="G65" s="35">
+        <v>13.7433</v>
+      </c>
+      <c r="H65" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9922999999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="35">
+        <v>6.7644000000000002</v>
+      </c>
+      <c r="C66" s="35">
+        <v>6.9051</v>
+      </c>
+      <c r="D66" s="40">
+        <f t="shared" si="0"/>
+        <v>0.1776963879767616</v>
+      </c>
+      <c r="E66">
+        <v>6.7656999999999998</v>
+      </c>
+      <c r="F66" s="35">
+        <f t="shared" si="1"/>
+        <v>1.2999999999996348E-3</v>
+      </c>
+      <c r="G66" s="35">
+        <v>13.761200000000001</v>
+      </c>
+      <c r="H66" s="38">
+        <f t="shared" si="2"/>
+        <v>6.9955000000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" s="35">
+        <v>6.7554999999999996</v>
+      </c>
+      <c r="C67" s="35">
+        <v>6.9271000000000003</v>
+      </c>
+      <c r="D67" s="40">
+        <f t="shared" ref="D67:D105" si="3">(C67-B67)/0.7918</f>
+        <v>0.21672139429148857</v>
+      </c>
+      <c r="E67">
+        <v>6.7576000000000001</v>
+      </c>
+      <c r="F67" s="35">
+        <f t="shared" ref="F67:F105" si="4">E67-B67</f>
+        <v>2.1000000000004349E-3</v>
+      </c>
+      <c r="G67" s="35">
+        <v>13.7814</v>
+      </c>
+      <c r="H67" s="38">
+        <f t="shared" ref="H67:H105" si="5">G67-E67</f>
+        <v>7.0237999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="35">
+        <v>6.7534999999999998</v>
+      </c>
+      <c r="C68" s="35">
+        <v>6.9134000000000002</v>
+      </c>
+      <c r="D68" s="40">
+        <f t="shared" si="3"/>
+        <v>0.2019449355897959</v>
+      </c>
+      <c r="E68">
+        <v>6.7548000000000004</v>
+      </c>
+      <c r="F68" s="35">
+        <f t="shared" si="4"/>
+        <v>1.300000000000523E-3</v>
+      </c>
+      <c r="G68" s="35">
+        <v>13.769600000000001</v>
+      </c>
+      <c r="H68" s="38">
+        <f t="shared" si="5"/>
+        <v>7.0148000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="42">
+        <v>6.7248999999999999</v>
+      </c>
+      <c r="C69" s="42"/>
+      <c r="D69" s="40">
+        <f t="shared" si="3"/>
+        <v>-8.4931800959838348</v>
+      </c>
+      <c r="F69" s="42">
+        <f t="shared" si="4"/>
+        <v>-6.7248999999999999</v>
+      </c>
+      <c r="H69" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="35">
+        <v>6.7470999999999997</v>
+      </c>
+      <c r="C70" s="35">
+        <v>6.9381000000000004</v>
+      </c>
+      <c r="D70" s="40">
+        <f t="shared" si="3"/>
+        <v>0.24122253094215804</v>
+      </c>
+      <c r="E70">
+        <v>6.7487000000000004</v>
+      </c>
+      <c r="F70" s="35">
+        <f t="shared" si="4"/>
+        <v>1.600000000000712E-3</v>
+      </c>
+      <c r="G70" s="35">
+        <v>13.7591</v>
+      </c>
+      <c r="H70" s="38">
+        <f t="shared" si="5"/>
+        <v>7.0103999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>206</v>
+      </c>
+      <c r="B71" s="35">
+        <v>6.7549999999999999</v>
+      </c>
+      <c r="C71" s="35">
+        <v>7.0781000000000001</v>
+      </c>
+      <c r="D71" s="40">
+        <f t="shared" si="3"/>
+        <v>0.4080575903005812</v>
+      </c>
+      <c r="E71">
+        <v>6.7561</v>
+      </c>
+      <c r="F71" s="35">
+        <f t="shared" si="4"/>
+        <v>1.1000000000001009E-3</v>
+      </c>
+      <c r="G71" s="35">
+        <v>13.750400000000001</v>
+      </c>
+      <c r="H71" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9943000000000008</v>
+      </c>
+      <c r="J71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" s="35">
+        <v>6.7228000000000003</v>
+      </c>
+      <c r="C72" s="35">
+        <v>6.9138999999999999</v>
+      </c>
+      <c r="D72" s="40">
+        <f t="shared" si="3"/>
+        <v>0.2413488254609745</v>
+      </c>
+      <c r="E72">
+        <v>6.7253999999999996</v>
+      </c>
+      <c r="F72" s="35">
+        <f t="shared" si="4"/>
+        <v>2.5999999999992696E-3</v>
+      </c>
+      <c r="G72" s="35">
+        <v>13.6869</v>
+      </c>
+      <c r="H72" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9615</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" s="35">
+        <v>6.7518000000000002</v>
+      </c>
+      <c r="C73" s="35">
+        <v>6.9447000000000001</v>
+      </c>
+      <c r="D73" s="40">
+        <f t="shared" si="3"/>
+        <v>0.24362212679969672</v>
+      </c>
+      <c r="E73">
+        <v>6.7561999999999998</v>
+      </c>
+      <c r="F73" s="35">
+        <f t="shared" si="4"/>
+        <v>4.3999999999995154E-3</v>
+      </c>
+      <c r="G73" s="35">
+        <v>13.7628</v>
+      </c>
+      <c r="H73" s="38">
+        <f t="shared" si="5"/>
+        <v>7.0066000000000006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>210</v>
+      </c>
+      <c r="B74" s="35">
+        <v>6.7469999999999999</v>
+      </c>
+      <c r="C74" s="35">
+        <v>6.9282000000000004</v>
+      </c>
+      <c r="D74" s="40">
+        <f t="shared" si="3"/>
+        <v>0.22884566809800516</v>
+      </c>
+      <c r="E74">
+        <v>6.7472000000000003</v>
+      </c>
+      <c r="F74" s="35">
+        <f t="shared" si="4"/>
+        <v>2.0000000000042206E-4</v>
+      </c>
+      <c r="G74" s="35">
+        <v>13.7119</v>
+      </c>
+      <c r="H74" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9646999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>211</v>
+      </c>
+      <c r="B75" s="35">
+        <v>6.7676999999999996</v>
+      </c>
+      <c r="C75" s="35">
+        <v>6.9550999999999998</v>
+      </c>
+      <c r="D75" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23667592826471362</v>
+      </c>
+      <c r="E75">
+        <v>6.7746000000000004</v>
+      </c>
+      <c r="F75" s="35">
+        <f t="shared" si="4"/>
+        <v>6.9000000000007944E-3</v>
+      </c>
+      <c r="G75">
+        <v>13.7559</v>
+      </c>
+      <c r="H75" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9813000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" s="44">
+        <v>6.7362000000000002</v>
+      </c>
+      <c r="C76" s="44">
+        <v>6.9256000000000002</v>
+      </c>
+      <c r="D76" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23920181864107101</v>
+      </c>
+      <c r="E76" s="43">
+        <v>6.7373000000000003</v>
+      </c>
+      <c r="F76" s="44">
+        <f t="shared" si="4"/>
+        <v>1.1000000000001009E-3</v>
+      </c>
+      <c r="G76" s="43">
+        <v>13.692600000000001</v>
+      </c>
+      <c r="H76" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9553000000000003</v>
+      </c>
+      <c r="J76" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B77" s="35">
+        <v>6.7496999999999998</v>
+      </c>
+      <c r="C77" s="35">
+        <v>6.9185999999999996</v>
+      </c>
+      <c r="D77" s="40">
+        <f t="shared" si="3"/>
+        <v>0.21331144228340471</v>
+      </c>
+      <c r="E77">
+        <v>6.7512999999999996</v>
+      </c>
+      <c r="F77" s="35">
+        <f t="shared" si="4"/>
+        <v>1.5999999999998238E-3</v>
+      </c>
+      <c r="G77" s="35">
+        <v>13.764699999999999</v>
+      </c>
+      <c r="H77" s="38">
+        <f t="shared" si="5"/>
+        <v>7.0133999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" s="35">
+        <v>6.7370999999999999</v>
+      </c>
+      <c r="C78" s="35">
+        <v>6.9138999999999999</v>
+      </c>
+      <c r="D78" s="40">
+        <f t="shared" si="3"/>
+        <v>0.22328870927001779</v>
+      </c>
+      <c r="E78">
+        <v>6.7385000000000002</v>
+      </c>
+      <c r="F78" s="35">
+        <f t="shared" si="4"/>
+        <v>1.4000000000002899E-3</v>
+      </c>
+      <c r="G78" s="35">
+        <v>13.7159</v>
+      </c>
+      <c r="H78" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9773999999999994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>216</v>
+      </c>
+      <c r="B79" s="35">
+        <v>6.7606999999999999</v>
+      </c>
+      <c r="C79" s="35">
+        <v>6.9488000000000003</v>
+      </c>
+      <c r="D79" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23755998989643898</v>
+      </c>
+      <c r="E79">
+        <v>6.7633999999999999</v>
+      </c>
+      <c r="F79" s="35">
+        <f t="shared" si="4"/>
+        <v>2.6999999999999247E-3</v>
+      </c>
+      <c r="G79" s="35">
+        <v>13.7239</v>
+      </c>
+      <c r="H79" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9605000000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>217</v>
+      </c>
+      <c r="B80" s="35">
+        <v>6.7614999999999998</v>
+      </c>
+      <c r="C80" s="35">
+        <v>6.9524999999999997</v>
+      </c>
+      <c r="D80" s="40">
+        <f t="shared" si="3"/>
+        <v>0.24122253094215693</v>
+      </c>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35">
+        <f t="shared" si="4"/>
+        <v>-6.7614999999999998</v>
+      </c>
+      <c r="G80" s="35">
+        <v>13.754</v>
+      </c>
+      <c r="H80" s="38">
+        <f t="shared" si="5"/>
+        <v>13.754</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" s="35">
+        <v>6.7298</v>
+      </c>
+      <c r="C81" s="35">
+        <v>6.8967999999999998</v>
+      </c>
+      <c r="D81" s="40">
+        <f t="shared" si="3"/>
+        <v>0.21091184642586489</v>
+      </c>
+      <c r="E81">
+        <v>6.7286999999999999</v>
+      </c>
+      <c r="F81" s="35">
+        <f t="shared" si="4"/>
+        <v>-1.1000000000001009E-3</v>
+      </c>
+      <c r="G81" s="35">
+        <v>13.744</v>
+      </c>
+      <c r="H81" s="38">
+        <f t="shared" si="5"/>
+        <v>7.0152999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>219</v>
+      </c>
+      <c r="B82" s="35">
+        <v>6.7583000000000002</v>
+      </c>
+      <c r="C82" s="35">
+        <v>6.9420999999999999</v>
+      </c>
+      <c r="D82" s="40">
+        <f t="shared" si="3"/>
+        <v>0.2321293255872692</v>
+      </c>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35">
+        <f t="shared" si="4"/>
+        <v>-6.7583000000000002</v>
+      </c>
+      <c r="G82" s="35">
+        <v>13.695399999999999</v>
+      </c>
+      <c r="H82" s="38">
+        <f t="shared" si="5"/>
+        <v>13.695399999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>220</v>
+      </c>
+      <c r="B83" s="35">
+        <v>6.7563000000000004</v>
+      </c>
+      <c r="C83" s="35">
+        <v>6.9412000000000003</v>
+      </c>
+      <c r="D83" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23351856529426604</v>
+      </c>
+      <c r="E83">
+        <v>6.7596999999999996</v>
+      </c>
+      <c r="F83" s="35">
+        <f t="shared" si="4"/>
+        <v>3.3999999999991815E-3</v>
+      </c>
+      <c r="G83">
+        <v>13.748100000000001</v>
+      </c>
+      <c r="H83" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9884000000000013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84" s="35">
+        <v>6.7803000000000004</v>
+      </c>
+      <c r="C84" s="35">
+        <v>6.9669999999999996</v>
+      </c>
+      <c r="D84" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23579186663298712</v>
+      </c>
+      <c r="E84">
+        <v>6.7808999999999999</v>
+      </c>
+      <c r="F84" s="35">
+        <f t="shared" si="4"/>
+        <v>5.9999999999948983E-4</v>
+      </c>
+      <c r="G84" s="35">
+        <v>13.6944</v>
+      </c>
+      <c r="H84" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>222</v>
+      </c>
+      <c r="B85" s="35">
+        <v>6.7755000000000001</v>
+      </c>
+      <c r="C85" s="35">
+        <v>6.9538000000000002</v>
+      </c>
+      <c r="D85" s="40">
+        <f t="shared" si="3"/>
+        <v>0.2251831270522861</v>
+      </c>
+      <c r="E85">
+        <v>6.7759999999999998</v>
+      </c>
+      <c r="F85" s="35">
+        <f t="shared" si="4"/>
+        <v>4.9999999999972289E-4</v>
+      </c>
+      <c r="G85" s="35">
+        <v>13.771000000000001</v>
+      </c>
+      <c r="H85" s="38">
+        <f t="shared" si="5"/>
+        <v>6.995000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>223</v>
+      </c>
+      <c r="B86" s="35">
+        <v>6.7451999999999996</v>
+      </c>
+      <c r="C86" s="35">
+        <v>6.9131</v>
+      </c>
+      <c r="D86" s="40">
+        <f t="shared" si="3"/>
+        <v>0.21204849709522655</v>
+      </c>
+      <c r="E86">
+        <v>6.7453000000000003</v>
+      </c>
+      <c r="F86" s="35">
+        <f t="shared" si="4"/>
+        <v>1.0000000000065512E-4</v>
+      </c>
+      <c r="G86" s="35">
+        <v>13.7126</v>
+      </c>
+      <c r="H86" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9672999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="35">
+        <v>6.7702</v>
+      </c>
+      <c r="C87" s="35">
+        <v>6.9481000000000002</v>
+      </c>
+      <c r="D87" s="40">
+        <f t="shared" si="3"/>
+        <v>0.22467794897701462</v>
+      </c>
+      <c r="E87">
+        <v>6.7830000000000004</v>
+      </c>
+      <c r="F87" s="35">
+        <v>6.7698</v>
+      </c>
+      <c r="G87" s="35">
+        <v>13.6938</v>
+      </c>
+      <c r="H87" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9107999999999992</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>225</v>
+      </c>
+      <c r="B88" s="35">
+        <v>6.7708000000000004</v>
+      </c>
+      <c r="C88" s="35">
+        <v>6.9573999999999998</v>
+      </c>
+      <c r="D88" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23566557211416955</v>
+      </c>
+      <c r="E88">
+        <v>6.7713000000000001</v>
+      </c>
+      <c r="F88" s="35">
+        <f t="shared" si="4"/>
+        <v>4.9999999999972289E-4</v>
+      </c>
+      <c r="G88" s="35">
+        <v>13.7692</v>
+      </c>
+      <c r="H88" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9978999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>226</v>
+      </c>
+      <c r="B89" s="35">
+        <v>6.7680999999999996</v>
+      </c>
+      <c r="C89" s="35">
+        <v>6.9554999999999998</v>
+      </c>
+      <c r="D89" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23667592826471362</v>
+      </c>
+      <c r="E89">
+        <v>6.7683999999999997</v>
+      </c>
+      <c r="F89" s="35">
+        <f t="shared" si="4"/>
+        <v>3.00000000000189E-4</v>
+      </c>
+      <c r="G89" s="35">
+        <v>13.7928</v>
+      </c>
+      <c r="H89" s="38">
+        <f t="shared" si="5"/>
+        <v>7.0244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>227</v>
+      </c>
+      <c r="B90" s="35">
+        <v>6.7718999999999996</v>
+      </c>
+      <c r="C90" s="35">
+        <v>6.9615999999999998</v>
+      </c>
+      <c r="D90" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23958070219752489</v>
+      </c>
+      <c r="E90">
+        <v>6.7725999999999997</v>
+      </c>
+      <c r="F90" s="35">
+        <f t="shared" si="4"/>
+        <v>7.0000000000014495E-4</v>
+      </c>
+      <c r="G90" s="35">
+        <v>13.777100000000001</v>
+      </c>
+      <c r="H90" s="38">
+        <f t="shared" si="5"/>
+        <v>7.0045000000000011</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>228</v>
+      </c>
+      <c r="B91" s="35">
+        <v>6.7445000000000004</v>
+      </c>
+      <c r="C91" s="35">
+        <v>6.9316000000000004</v>
+      </c>
+      <c r="D91" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23629704470825974</v>
+      </c>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35">
+        <f t="shared" si="4"/>
+        <v>-6.7445000000000004</v>
+      </c>
+      <c r="G91" s="35">
+        <v>13.6889</v>
+      </c>
+      <c r="H91" s="38">
+        <f t="shared" si="5"/>
+        <v>13.6889</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>229</v>
+      </c>
+      <c r="B92" s="35">
+        <v>6.7432999999999996</v>
+      </c>
+      <c r="C92" s="35">
+        <v>6.9306000000000001</v>
+      </c>
+      <c r="D92" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23654963374589602</v>
+      </c>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35">
+        <f t="shared" si="4"/>
+        <v>-6.7432999999999996</v>
+      </c>
+      <c r="G92" s="35">
+        <v>13.726000000000001</v>
+      </c>
+      <c r="H92" s="38">
+        <f t="shared" si="5"/>
+        <v>13.726000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>230</v>
+      </c>
+      <c r="B93" s="35">
+        <v>6.7542999999999997</v>
+      </c>
+      <c r="C93" s="35">
+        <v>6.9416000000000002</v>
+      </c>
+      <c r="D93" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23654963374589602</v>
+      </c>
+      <c r="E93">
+        <v>6.7553000000000001</v>
+      </c>
+      <c r="F93" s="35">
+        <f t="shared" si="4"/>
+        <v>1.000000000000334E-3</v>
+      </c>
+      <c r="G93" s="35">
+        <v>13.6945</v>
+      </c>
+      <c r="H93" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9391999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>231</v>
+      </c>
+      <c r="B94" s="35">
+        <v>6.7401</v>
+      </c>
+      <c r="C94" s="35">
+        <v>6.9311999999999996</v>
+      </c>
+      <c r="D94" s="40">
+        <f t="shared" si="3"/>
+        <v>0.2413488254609745</v>
+      </c>
+      <c r="E94">
+        <v>6.7411000000000003</v>
+      </c>
+      <c r="F94" s="35">
+        <f t="shared" si="4"/>
+        <v>1.000000000000334E-3</v>
+      </c>
+      <c r="G94" s="35">
+        <v>13.6858</v>
+      </c>
+      <c r="H94" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9447000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>232</v>
+      </c>
+      <c r="B95" s="35">
+        <v>6.7390999999999996</v>
+      </c>
+      <c r="C95" s="35">
+        <v>6.9286000000000003</v>
+      </c>
+      <c r="D95" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23932811315988972</v>
+      </c>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35">
+        <f t="shared" si="4"/>
+        <v>-6.7390999999999996</v>
+      </c>
+      <c r="G95" s="35">
+        <v>13.724500000000001</v>
+      </c>
+      <c r="H95" s="38">
+        <f t="shared" si="5"/>
+        <v>13.724500000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>233</v>
+      </c>
+      <c r="B96" s="35">
+        <v>6.7374000000000001</v>
+      </c>
+      <c r="C96" s="35">
+        <v>6.9292999999999996</v>
+      </c>
+      <c r="D96" s="40">
+        <f t="shared" si="3"/>
+        <v>0.24235918161151745</v>
+      </c>
+      <c r="E96">
+        <v>6.7384000000000004</v>
+      </c>
+      <c r="F96" s="35">
+        <f t="shared" si="4"/>
+        <v>1.000000000000334E-3</v>
+      </c>
+      <c r="G96" s="35">
+        <v>13.728400000000001</v>
+      </c>
+      <c r="H96" s="38">
+        <f t="shared" si="5"/>
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>234</v>
+      </c>
+      <c r="B97" s="35">
+        <v>6.7343000000000002</v>
+      </c>
+      <c r="C97" s="35">
+        <v>6.9212999999999996</v>
+      </c>
+      <c r="D97" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23617075018944103</v>
+      </c>
+      <c r="E97">
+        <v>6.7355999999999998</v>
+      </c>
+      <c r="F97" s="35">
+        <f t="shared" si="4"/>
+        <v>1.2999999999996348E-3</v>
+      </c>
+      <c r="G97" s="35">
+        <v>13.7286</v>
+      </c>
+      <c r="H97" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9930000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>235</v>
+      </c>
+      <c r="B98" s="35">
+        <v>6.7469000000000001</v>
+      </c>
+      <c r="C98" s="35">
+        <v>6.9358000000000004</v>
+      </c>
+      <c r="D98" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23857034604698193</v>
+      </c>
+      <c r="E98">
+        <v>6.7469999999999999</v>
+      </c>
+      <c r="F98" s="35">
+        <f t="shared" si="4"/>
+        <v>9.9999999999766942E-5</v>
+      </c>
+      <c r="G98" s="35">
+        <v>13.643800000000001</v>
+      </c>
+      <c r="H98" s="38">
+        <f t="shared" si="5"/>
+        <v>6.8968000000000007</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="B99" s="42">
+        <v>6.7205000000000004</v>
+      </c>
+      <c r="C99" s="42">
+        <v>6.9218000000000002</v>
+      </c>
+      <c r="D99" s="40">
+        <f t="shared" si="3"/>
+        <v>0.25423086638039888</v>
+      </c>
+      <c r="F99" s="42">
+        <f t="shared" si="4"/>
+        <v>-6.7205000000000004</v>
+      </c>
+      <c r="H99" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>238</v>
+      </c>
+      <c r="B100" s="35">
+        <v>6.7427999999999999</v>
+      </c>
+      <c r="C100" s="35">
+        <v>6.9362000000000004</v>
+      </c>
+      <c r="D100" s="40">
+        <f t="shared" si="3"/>
+        <v>0.24425359939378691</v>
+      </c>
+      <c r="E100">
+        <v>6.7450999999999999</v>
+      </c>
+      <c r="F100" s="35">
+        <f t="shared" si="4"/>
+        <v>2.2999999999999687E-3</v>
+      </c>
+      <c r="G100" s="35">
+        <v>13.744400000000001</v>
+      </c>
+      <c r="H100" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9993000000000007</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>239</v>
+      </c>
+      <c r="B101" s="35">
+        <v>6.7462</v>
+      </c>
+      <c r="C101" s="35">
+        <v>6.9123999999999999</v>
+      </c>
+      <c r="D101" s="40">
+        <f t="shared" si="3"/>
+        <v>0.20990149027532196</v>
+      </c>
+      <c r="E101">
+        <v>6.7480000000000002</v>
+      </c>
+      <c r="F101" s="35">
+        <f t="shared" si="4"/>
+        <v>1.8000000000002458E-3</v>
+      </c>
+      <c r="G101" s="35">
+        <v>13.697699999999999</v>
+      </c>
+      <c r="H101" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9496999999999991</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>240</v>
+      </c>
+      <c r="B102" s="35">
+        <v>6.7746000000000004</v>
+      </c>
+      <c r="C102" s="35">
+        <v>6.9535</v>
+      </c>
+      <c r="D102" s="40">
+        <f t="shared" si="3"/>
+        <v>0.22594089416519275</v>
+      </c>
+      <c r="E102">
+        <v>6.7766000000000002</v>
+      </c>
+      <c r="F102" s="35">
+        <f t="shared" si="4"/>
+        <v>1.9999999999997797E-3</v>
+      </c>
+      <c r="G102" s="35">
+        <v>13.5373</v>
+      </c>
+      <c r="H102" s="38">
+        <f t="shared" si="5"/>
+        <v>6.7606999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>241</v>
+      </c>
+      <c r="B103" s="35">
+        <v>6.7435999999999998</v>
+      </c>
+      <c r="C103" s="35">
+        <v>6.9288999999999996</v>
+      </c>
+      <c r="D103" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23402374336953752</v>
+      </c>
+      <c r="E103">
+        <v>6.7457000000000003</v>
+      </c>
+      <c r="F103" s="35">
+        <f t="shared" si="4"/>
+        <v>2.1000000000004349E-3</v>
+      </c>
+      <c r="G103">
+        <v>13.6586</v>
+      </c>
+      <c r="H103" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9128999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>242</v>
+      </c>
+      <c r="B104" s="35">
+        <v>6.7561999999999998</v>
+      </c>
+      <c r="C104" s="35">
+        <v>6.9447999999999999</v>
+      </c>
+      <c r="D104" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23819146249052806</v>
+      </c>
+      <c r="E104">
+        <v>6.7596999999999996</v>
+      </c>
+      <c r="F104" s="35">
+        <f t="shared" si="4"/>
+        <v>3.4999999999998366E-3</v>
+      </c>
+      <c r="G104">
+        <v>13.682700000000001</v>
+      </c>
+      <c r="H104" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9230000000000009</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>243</v>
+      </c>
+      <c r="B105" s="35">
+        <v>6.7339000000000002</v>
+      </c>
+      <c r="C105" s="35">
+        <v>6.9184000000000001</v>
+      </c>
+      <c r="D105" s="40">
+        <f t="shared" si="3"/>
+        <v>0.23301338721899456</v>
+      </c>
+      <c r="E105">
+        <v>6.7356999999999996</v>
+      </c>
+      <c r="F105" s="35">
+        <f t="shared" si="4"/>
+        <v>1.7999999999993577E-3</v>
+      </c>
+      <c r="G105" s="35">
+        <v>13.697900000000001</v>
+      </c>
+      <c r="H105" s="38">
+        <f t="shared" si="5"/>
+        <v>6.9622000000000011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA53AE6-5E23-2442-8563-4CA30FF6662F}">
   <dimension ref="A1:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -15353,26 +18845,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5cece13e-3376-4417-9525-be60b11a89a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="03570766-e33a-4164-8943-6d32a7ac417a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006DC853A563ABF64B8421887057055B0F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="73e5d7f23b6143b72c394d0b791b373d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="03570766-e33a-4164-8943-6d32a7ac417a" xmlns:ns3="5cece13e-3376-4417-9525-be60b11a89a8" xmlns:ns4="482683a9-e61d-4853-b10b-3f4a908e17aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd41d5c3e91c11ef649cb8e5f5e12511" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="03570766-e33a-4164-8943-6d32a7ac417a"/>
@@ -15600,33 +19072,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF21F518-5840-4B9C-B7A7-C68FEFA76CF1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="482683a9-e61d-4853-b10b-3f4a908e17aa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5cece13e-3376-4417-9525-be60b11a89a8"/>
-    <ds:schemaRef ds:uri="03570766-e33a-4164-8943-6d32a7ac417a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB7F15B3-A81F-4A71-B0B7-DFC0AD11F1D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5cece13e-3376-4417-9525-be60b11a89a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="03570766-e33a-4164-8943-6d32a7ac417a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07A0AA8-69A1-4E24-B4DE-BB19F441F5A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15644,4 +19110,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB7F15B3-A81F-4A71-B0B7-DFC0AD11F1D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF21F518-5840-4B9C-B7A7-C68FEFA76CF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="482683a9-e61d-4853-b10b-3f4a908e17aa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5cece13e-3376-4417-9525-be60b11a89a8"/>
+    <ds:schemaRef ds:uri="03570766-e33a-4164-8943-6d32a7ac417a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>